--- a/productiecapaciteit/results/Leidingweerstand/Leidingweerstand_modelcoefficienten.xlsx
+++ b/productiecapaciteit/results/Leidingweerstand/Leidingweerstand_modelcoefficienten.xlsx
@@ -477,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,13 +515,13 @@
         <v>42370</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.326245653006986e-05</v>
+        <v>-3.133845692394376e-05</v>
       </c>
       <c r="D2" t="n">
         <v>-2e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45049.46967727664</v>
+        <v>45063.39196489687</v>
       </c>
     </row>
     <row r="3">
@@ -529,16 +529,50 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>42716.5</v>
+        <v>42770.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-6.965541343656231e-06</v>
+        <v>-1.282443874492418e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-2e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45049.46967727664</v>
+        <v>45063.39196489687</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>43505.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2.752443874492418e-05</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-2e-08</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>45063.39196510521</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>43866</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-2.591314835018135e-05</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-2e-08</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>45063.39196489687</v>
       </c>
     </row>
   </sheetData>
@@ -552,7 +586,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,13 +624,13 @@
         <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.213142466848561e-05</v>
+        <v>-1.212796480347737e-05</v>
       </c>
       <c r="D2" t="n">
         <v>-1.23340294e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45049.46637946759</v>
+        <v>45063.38767077546</v>
       </c>
     </row>
     <row r="3">
@@ -604,16 +638,101 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>43446.5</v>
+        <v>41682</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.284709124801133e-05</v>
+        <v>-1.293214352035737e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-1.23340294e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45049.46637946759</v>
+        <v>45063.38767108796</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>42319</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.371782119313737e-05</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-1.23340294e-09</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>45063.38767108796</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>43057.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.462868926432737e-05</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-1.23340294e-09</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>45063.38767108796</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>43355</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1.320670880977817e-05</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-1.23340294e-09</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>45063.38767077546</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>43719</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.345589031662737e-05</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-1.23340294e-09</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>45063.38767077546</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>44464.5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.376941013615615e-05</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-1.23340294e-09</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>45063.38767077546</v>
       </c>
     </row>
   </sheetData>
@@ -627,7 +746,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,13 +784,13 @@
         <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.482243721368961e-06</v>
+        <v>-6.028381847523073e-06</v>
       </c>
       <c r="D2" t="n">
         <v>-1.4e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45049.46658575231</v>
+        <v>45063.38843021991</v>
       </c>
     </row>
     <row r="3">
@@ -682,13 +801,64 @@
         <v>42350.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.371602963083236e-06</v>
+        <v>-6.253743847479116e-06</v>
       </c>
       <c r="D3" t="n">
         <v>-1.4e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45049.46658575231</v>
+        <v>45063.38843021991</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>43428.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-7.762943847479116e-06</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-1.4e-09</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>45063.38843055555</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>43792.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5.965033485526009e-06</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-1.4e-09</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>45063.38843021991</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>44807.5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-7.031108025192126e-06</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-1.4e-09</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>45063.38843021991</v>
       </c>
     </row>
   </sheetData>
@@ -702,7 +872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -740,13 +910,13 @@
         <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-9.150885766695501e-06</v>
+        <v>-5.525439749933411e-06</v>
       </c>
       <c r="D2" t="n">
         <v>-1.37160175e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45049.46679533565</v>
+        <v>45063.38916449074</v>
       </c>
     </row>
     <row r="3">
@@ -754,16 +924,50 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>42350.5</v>
+        <v>42049.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.020449628063114e-05</v>
+        <v>-6.923787734058412e-06</v>
       </c>
       <c r="D3" t="n">
         <v>-1.37160175e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45049.46679533565</v>
+        <v>45063.38916467593</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>43446</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-8.839229577933412e-06</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-1.37160175e-09</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>45063.38916467593</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>43841.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5.740333923219566e-06</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-1.37160175e-09</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>45063.38916449074</v>
       </c>
     </row>
   </sheetData>
@@ -815,13 +1019,13 @@
         <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.703897211004807e-06</v>
+        <v>-7.9539398195634e-06</v>
       </c>
       <c r="D2" t="n">
         <v>-2e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45049.46701253473</v>
+        <v>45063.38960195602</v>
       </c>
     </row>
     <row r="3">
@@ -829,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>41902.5</v>
+        <v>41899</v>
       </c>
       <c r="C3" t="n">
-        <v>-8.563590252390805e-06</v>
+        <v>-8.391472213374146e-06</v>
       </c>
       <c r="D3" t="n">
         <v>-2e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45049.46701253473</v>
+        <v>45063.38960195602</v>
       </c>
     </row>
     <row r="4">
@@ -846,16 +1050,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>43081.5</v>
+        <v>44104</v>
       </c>
       <c r="C4" t="n">
-        <v>-9.725116492456587e-06</v>
+        <v>-1.159928599314662e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-2e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45049.46701253473</v>
+        <v>45063.38960195602</v>
       </c>
     </row>
     <row r="5">
@@ -863,16 +1067,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>44105</v>
+        <v>44895</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.05501758567764e-05</v>
+        <v>-8.896608701652716e-06</v>
       </c>
       <c r="D5" t="n">
         <v>-2e-09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45049.46701253473</v>
+        <v>45063.38960195602</v>
       </c>
     </row>
   </sheetData>
@@ -886,7 +1090,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -924,13 +1128,13 @@
         <v>42371</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.085084989756255e-06</v>
+        <v>-7.139635039255535e-06</v>
       </c>
       <c r="D2" t="n">
         <v>-1.8e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45049.4671787037</v>
+        <v>45063.38987225694</v>
       </c>
     </row>
     <row r="3">
@@ -938,16 +1142,33 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>43446.5</v>
+        <v>43085.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.749643740759619e-05</v>
+        <v>-1.361933163665999e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-1.8e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45049.4671787037</v>
+        <v>45063.38987225694</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.157133149678603e-05</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-1.8e-08</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>45063.38987225694</v>
       </c>
     </row>
   </sheetData>
@@ -999,13 +1220,13 @@
         <v>42371</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.310882761779524e-05</v>
+        <v>-2.879316940300795e-05</v>
       </c>
       <c r="D2" t="n">
         <v>-3e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45049.46726706019</v>
+        <v>45063.38998658565</v>
       </c>
     </row>
     <row r="3">
@@ -1013,16 +1234,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>43081.5</v>
+        <v>43446</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.202680389396352e-05</v>
+        <v>-3.017648481300143e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-3e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45049.46726706019</v>
+        <v>45063.38998658565</v>
       </c>
     </row>
     <row r="4">
@@ -1030,16 +1251,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>44564.5</v>
+        <v>44146</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.620099195418509e-05</v>
+        <v>-2.756543414853587e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-3e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45049.46726706019</v>
+        <v>45063.38998658565</v>
       </c>
     </row>
   </sheetData>
@@ -1053,7 +1274,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1091,13 +1312,81 @@
         <v>42371</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.248745867476679e-05</v>
+        <v>-2.412958800228962e-06</v>
       </c>
       <c r="D2" t="n">
         <v>-2.5e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45049.46735461806</v>
+        <v>45063.39017736111</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>43533.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-3.145691511363074e-05</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-2.5e-08</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>45063.39017736111</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>43897.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-7.550632277028458e-06</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-2.5e-08</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>45063.39017736111</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>44569.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-6.153460815620658e-06</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-2.5e-08</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>45063.39017736111</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>44912.5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-8.947036562263085e-06</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-2.5e-08</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>45063.39017736111</v>
       </c>
     </row>
   </sheetData>
@@ -1149,13 +1438,13 @@
         <v>42371</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.099915677626784e-05</v>
+        <v>-8.064238077193398e-06</v>
       </c>
       <c r="D2" t="n">
         <v>-2.8e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45049.46743965278</v>
+        <v>45063.39033200232</v>
       </c>
     </row>
     <row r="3">
@@ -1163,16 +1452,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>43081.5</v>
+        <v>43141.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-7.451231385241158e-06</v>
+        <v>-6.465110954530331e-06</v>
       </c>
       <c r="D3" t="n">
         <v>-2.8e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45049.46743965278</v>
+        <v>45063.39033200232</v>
       </c>
     </row>
     <row r="4">
@@ -1180,16 +1469,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>44169.5</v>
+        <v>44268.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.360462667050334e-05</v>
+        <v>-9.191429146696417e-06</v>
       </c>
       <c r="D4" t="n">
         <v>-2.8e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45049.46743965278</v>
+        <v>45063.39033200232</v>
       </c>
     </row>
     <row r="5">
@@ -1197,16 +1486,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>44537</v>
+        <v>44611.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.534886430572972e-05</v>
+        <v>-4.563967675936564e-06</v>
       </c>
       <c r="D5" t="n">
         <v>-2.8e-08</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45049.46743965278</v>
+        <v>45063.39033200232</v>
       </c>
     </row>
   </sheetData>
@@ -1220,7 +1509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1258,13 +1547,13 @@
         <v>42371</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.603090027548895e-05</v>
+        <v>-2.540119924107129e-05</v>
       </c>
       <c r="D2" t="n">
         <v>-1.4e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45049.46753418982</v>
+        <v>45063.39047476852</v>
       </c>
     </row>
     <row r="3">
@@ -1272,16 +1561,50 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>42716.5</v>
+        <v>42812.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.38486179410126e-05</v>
+        <v>-2.047081437173477e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-1.4e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45049.46753418982</v>
+        <v>45063.39047476852</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>43477.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2.614460605512416e-05</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-1.4e-08</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>45063.39047476852</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>43803</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-2.264540057131829e-05</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-1.4e-08</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>45063.39047476852</v>
       </c>
     </row>
   </sheetData>
@@ -1333,13 +1656,13 @@
         <v>42461.45833333334</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.289339754509777e-14</v>
+        <v>-8.110254054338176e-10</v>
       </c>
       <c r="D2" t="n">
         <v>-1e-07</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45049.46834609954</v>
+        <v>45063.39066450232</v>
       </c>
     </row>
     <row r="3">
@@ -1347,16 +1670,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>42716.5</v>
+        <v>42637.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.454902858148319e-05</v>
+        <v>-9.27496933616731e-07</v>
       </c>
       <c r="D3" t="n">
         <v>-1e-07</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45049.46834609954</v>
+        <v>45063.39066450232</v>
       </c>
     </row>
     <row r="4">
@@ -1364,16 +1687,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>44154</v>
+        <v>44170.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.431216974335579e-05</v>
+        <v>-6.209587713609459e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-1e-07</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45049.46834609954</v>
+        <v>45063.39066450232</v>
       </c>
     </row>
   </sheetData>
@@ -1387,7 +1710,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1425,13 +1748,13 @@
         <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-9.682715169284631e-06</v>
+        <v>-9.557314370530433e-06</v>
       </c>
       <c r="D2" t="n">
         <v>-1.2032909e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45049.46431950232</v>
+        <v>45063.38241334491</v>
       </c>
     </row>
     <row r="3">
@@ -1439,16 +1762,33 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>43446.5</v>
+        <v>43015.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.190705698591582e-05</v>
+        <v>-1.194644845248043e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-1.2032909e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45049.46431950232</v>
+        <v>45063.38241334491</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>44443.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.209947456243755e-05</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-1.2032909e-09</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>45063.38241334491</v>
       </c>
     </row>
   </sheetData>
@@ -1462,7 +1802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1500,13 +1840,13 @@
         <v>42370</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.388689697928545e-06</v>
+        <v>-4.991771412584043e-06</v>
       </c>
       <c r="D2" t="n">
         <v>-1.8e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45049.46919554398</v>
+        <v>45063.39081635416</v>
       </c>
     </row>
     <row r="3">
@@ -1514,16 +1854,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>43081.5</v>
+        <v>43120.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.557545339496146e-05</v>
+        <v>-1.355117977499214e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-1.8e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45049.46919554398</v>
+        <v>45063.39081635416</v>
       </c>
     </row>
     <row r="4">
@@ -1531,33 +1871,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>43446.5</v>
+        <v>44590.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.744350479257909e-05</v>
+        <v>-3.633411216426398e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-1.8e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45049.46919554398</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>44564.5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-3.523171117895741e-05</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-1.8e-08</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>45049.46919554398</v>
+        <v>45063.39081635416</v>
       </c>
     </row>
   </sheetData>
@@ -1609,13 +1932,13 @@
         <v>42370</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.921834045777452e-06</v>
+        <v>-3.598179169762667e-06</v>
       </c>
       <c r="D2" t="n">
         <v>-2e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45049.46930444444</v>
+        <v>45063.39097048611</v>
       </c>
     </row>
     <row r="3">
@@ -1623,16 +1946,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>43081.5</v>
+        <v>43190.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.524189591682042e-06</v>
+        <v>-5.091701641842972e-06</v>
       </c>
       <c r="D3" t="n">
         <v>-2e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45049.46930444444</v>
+        <v>45063.39097048611</v>
       </c>
     </row>
     <row r="4">
@@ -1640,16 +1963,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>44206.5</v>
+        <v>44044.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.930282382326042e-05</v>
+        <v>-1.891732763445158e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-2e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45049.46930444444</v>
+        <v>45063.39097048611</v>
       </c>
     </row>
     <row r="5">
@@ -1657,16 +1980,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>44483.5</v>
+        <v>44520.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-8.738897027024659e-06</v>
+        <v>-1.02919361612917e-05</v>
       </c>
       <c r="D5" t="n">
         <v>-2e-08</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45049.46930444444</v>
+        <v>45063.39097048611</v>
       </c>
     </row>
   </sheetData>
@@ -1680,7 +2003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1718,13 +2041,13 @@
         <v>42370</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.621408853529022e-05</v>
+        <v>-4.437098572414022e-05</v>
       </c>
       <c r="D2" t="n">
         <v>-5e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45049.46940168981</v>
+        <v>45063.39122842593</v>
       </c>
     </row>
     <row r="3">
@@ -1732,16 +2055,67 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>43446.5</v>
+        <v>43141.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.067878138066363e-05</v>
+        <v>-4.822848572414022e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-5e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45049.46940168981</v>
+        <v>45063.39122869213</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>43502</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2.287240675995071e-05</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-5e-09</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>45063.39122842593</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>44202</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.744910235547772e-05</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-5e-09</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>45063.39122842593</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>44258</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1.772910235547772e-05</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-5e-09</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>45063.39122869213</v>
       </c>
     </row>
   </sheetData>
@@ -1755,7 +2129,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1793,13 +2167,13 @@
         <v>42461.45833333334</v>
       </c>
       <c r="C2" t="n">
-        <v>-9.025435816535034e-06</v>
+        <v>-8.018050339723055e-06</v>
       </c>
       <c r="D2" t="n">
         <v>-3e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45049.46948614583</v>
+        <v>45063.39150625</v>
       </c>
     </row>
     <row r="3">
@@ -1807,16 +2181,50 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>43446.5</v>
+        <v>43169.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.288496066039284e-05</v>
+        <v>-2.925930033972305e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-3e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45049.46948614583</v>
+        <v>45063.39150643518</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>43537</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.443971682553291e-05</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-3e-08</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>45063.39150625</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>44933.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.349998082285456e-05</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-3e-08</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>45063.39150625</v>
       </c>
     </row>
   </sheetData>
@@ -1868,13 +2276,13 @@
         <v>42396.625</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.212249773668882e-05</v>
+        <v>-2.069105467401738e-05</v>
       </c>
       <c r="D2" t="n">
         <v>-5e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45049.46957623843</v>
+        <v>45063.39167180556</v>
       </c>
     </row>
     <row r="3">
@@ -1882,16 +2290,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>42716.5</v>
+        <v>42679.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.572864027997586e-05</v>
+        <v>-4.858977126650135e-16</v>
       </c>
       <c r="D3" t="n">
         <v>-5e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45049.46957623843</v>
+        <v>45063.39167180556</v>
       </c>
     </row>
     <row r="4">
@@ -1899,16 +2307,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>43081.5</v>
+        <v>44286</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.904141514419003e-06</v>
+        <v>-2.356263279084974e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-5e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45049.46957623843</v>
+        <v>45063.39167180556</v>
       </c>
     </row>
     <row r="5">
@@ -1916,16 +2324,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>44206.5</v>
+        <v>44849.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.674982220343266e-05</v>
+        <v>-4.046402040621742e-05</v>
       </c>
       <c r="D5" t="n">
         <v>-5e-08</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45049.46957623843</v>
+        <v>45063.39167180556</v>
       </c>
     </row>
   </sheetData>
@@ -1977,13 +2385,13 @@
         <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.484204785679869e-05</v>
+        <v>-1.483940767822277e-05</v>
       </c>
       <c r="D2" t="n">
         <v>-4.99102734e-10</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45049.46457865741</v>
+        <v>45063.38293293981</v>
       </c>
     </row>
     <row r="3">
@@ -1991,16 +2399,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>42716.5</v>
+        <v>42707.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.54735163536368e-05</v>
+        <v>-1.54824699440243e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-4.99102734e-10</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45049.46457865741</v>
+        <v>45063.38293293981</v>
       </c>
     </row>
     <row r="4">
@@ -2008,16 +2416,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>44105</v>
+        <v>44128.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.482659729532981e-05</v>
+        <v>-1.477978347382625e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-4.99102734e-10</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45049.46457865741</v>
+        <v>45063.38293293981</v>
       </c>
     </row>
   </sheetData>
@@ -2031,7 +2439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2069,13 +2477,13 @@
         <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-8.009212117105055e-06</v>
+        <v>-7.753668606103622e-06</v>
       </c>
       <c r="D2" t="n">
         <v>-1.31926556e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45049.46485231481</v>
+        <v>45063.38366693287</v>
       </c>
     </row>
     <row r="3">
@@ -2083,16 +2491,50 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>43446.5</v>
+        <v>41899</v>
       </c>
       <c r="C3" t="n">
-        <v>-9.052135002931525e-06</v>
+        <v>-8.900110377743622e-06</v>
       </c>
       <c r="D3" t="n">
         <v>-1.31926556e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45049.46485231481</v>
+        <v>45063.38366711805</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>42987.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.033613093980362e-05</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-1.31926556e-09</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>45063.38366711805</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>44163.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.15470473652596e-05</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-1.31926556e-09</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>45063.38366693287</v>
       </c>
     </row>
   </sheetData>
@@ -2101,6 +2543,350 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>datum</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>offset</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>slope</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>gewijzigd</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>41030</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-9.863223806424048e-06</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-4.76097119e-10</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>45063.3841554051</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>42795</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.01256349310922e-05</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-4.76097119e-10</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>45063.3841554051</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>44079.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-9.052266449026106e-06</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-4.76097119e-10</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>45063.3841554051</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>44975.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5.147963084161219e-06</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-4.76097119e-10</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>45063.3841554051</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>datum</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>offset</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>slope</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>gewijzigd</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>41030</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.567910706926116e-05</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-8.12359361e-10</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>45063.38505211806</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>42301.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.671202199677266e-05</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-8.12359361e-10</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>45063.38505234953</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>43386.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.759343190345766e-05</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-8.12359361e-10</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>45063.38505234953</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>43750.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.565840444662489e-05</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-8.12359361e-10</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>45063.38505211806</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>44954.5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-8.812454048622684e-06</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-8.12359361e-10</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>45063.38505211806</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>datum</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>offset</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>slope</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>gewijzigd</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>41030</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.736800022515032e-05</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-1.5e-09</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>45063.38566576389</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>42249</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.919650022515032e-05</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-1.5e-09</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>45063.3856659838</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>43040</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.957619258285438e-05</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-1.5e-09</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>45063.38566576389</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>44499.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.957836326053695e-05</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-1.5e-09</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>45063.38566576389</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2144,13 +2930,13 @@
         <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.941585856684287e-06</v>
+        <v>-1.147369189452073e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.76097119e-10</v>
+        <v>-4.70430499e-10</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45049.46505510416</v>
+        <v>45063.38612143519</v>
       </c>
     </row>
     <row r="3">
@@ -2158,16 +2944,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>42716.5</v>
+        <v>41871</v>
       </c>
       <c r="C3" t="n">
-        <v>-8.025002260117376e-06</v>
+        <v>-8.730063217533511e-06</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.76097119e-10</v>
+        <v>-4.70430499e-10</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45049.46505510416</v>
+        <v>45063.38612143519</v>
       </c>
     </row>
     <row r="4">
@@ -2175,258 +2961,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>44154</v>
+        <v>44237</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.433463987988995e-06</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-4.76097119e-10</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>45049.46505510416</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>datum</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>offset</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>slope</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>gewijzigd</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="n">
-        <v>41030</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-1.536916612309477e-05</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-8.12359361e-10</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>45049.46530865741</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>datum</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>offset</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>slope</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>gewijzigd</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="n">
-        <v>41030</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-1.764814614628367e-05</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-1.5e-09</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>45049.46555019676</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>43446.5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-1.791056649885275e-05</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-1.5e-09</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>45049.46555019676</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>datum</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>offset</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>slope</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>gewijzigd</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="n">
-        <v>41030</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-1.012238667153767e-05</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-4.70430499e-10</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>45049.46580722222</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>41875</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-7.411156424243462e-06</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-4.70430499e-10</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>45049.46580722222</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="n">
-        <v>43081.5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-7.098179432171626e-06</v>
+        <v>-9.249993533701744e-06</v>
       </c>
       <c r="D4" t="n">
         <v>-4.70430499e-10</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45049.46580722222</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>44155</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-7.53763214843397e-06</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-4.70430499e-10</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>45049.46580722222</v>
+        <v>45063.38612143519</v>
       </c>
     </row>
   </sheetData>
@@ -2440,7 +2984,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2478,13 +3022,13 @@
         <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.063826148420108e-05</v>
+        <v>-1.153329153877228e-05</v>
       </c>
       <c r="D2" t="n">
         <v>-7.70458001e-10</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45049.46606664352</v>
+        <v>45063.38672637731</v>
       </c>
     </row>
     <row r="3">
@@ -2492,16 +3036,67 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>42716.5</v>
+        <v>42655</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.015855227686576e-05</v>
+        <v>-1.114986736468468e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-7.70458001e-10</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45049.46606664352</v>
+        <v>45063.38672637731</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>43407.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.172963701043718e-05</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-7.70458001e-10</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>45063.3867266551</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>43771.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.047021460825533e-05</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-7.70458001e-10</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>45063.38672637731</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>44541.5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1.064651176490904e-05</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-7.70458001e-10</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>45063.38672637731</v>
       </c>
     </row>
   </sheetData>

--- a/productiecapaciteit/results/Leidingweerstand/Leidingweerstand_modelcoefficienten.xlsx
+++ b/productiecapaciteit/results/Leidingweerstand/Leidingweerstand_modelcoefficienten.xlsx
@@ -521,7 +521,7 @@
         <v>-2e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45063.39196489687</v>
+        <v>45063.39196489583</v>
       </c>
     </row>
     <row r="3">
@@ -538,7 +538,7 @@
         <v>-2e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45063.39196489687</v>
+        <v>45063.39196489583</v>
       </c>
     </row>
     <row r="4">
@@ -555,7 +555,7 @@
         <v>-2e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45063.39196510521</v>
+        <v>45063.39196510417</v>
       </c>
     </row>
     <row r="5">
@@ -572,7 +572,7 @@
         <v>-2e-08</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45063.39196489687</v>
+        <v>45063.39196489583</v>
       </c>
     </row>
   </sheetData>
@@ -2892,7 +2892,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2930,13 +2930,13 @@
         <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.147369189452073e-05</v>
+        <v>-1.147477366383637e-05</v>
       </c>
       <c r="D2" t="n">
         <v>-4.70430499e-10</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45063.38612143519</v>
+        <v>45068.67083403029</v>
       </c>
     </row>
     <row r="3">
@@ -2947,13 +2947,13 @@
         <v>41871</v>
       </c>
       <c r="C3" t="n">
-        <v>-8.730063217533511e-06</v>
+        <v>-8.949418712531691e-06</v>
       </c>
       <c r="D3" t="n">
         <v>-4.70430499e-10</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45063.38612143519</v>
+        <v>45068.67083403029</v>
       </c>
     </row>
     <row r="4">
@@ -2961,16 +2961,33 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>44237</v>
+        <v>43082</v>
       </c>
       <c r="C4" t="n">
-        <v>-9.249993533701744e-06</v>
+        <v>-8.996541927002381e-06</v>
       </c>
       <c r="D4" t="n">
         <v>-4.70430499e-10</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45063.38612143519</v>
+        <v>45068.67083403029</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>44237</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-9.247736124912621e-06</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-4.70430499e-10</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>45068.67083403029</v>
       </c>
     </row>
   </sheetData>

--- a/productiecapaciteit/results/Leidingweerstand/Leidingweerstand_modelcoefficienten.xlsx
+++ b/productiecapaciteit/results/Leidingweerstand/Leidingweerstand_modelcoefficienten.xlsx
@@ -521,7 +521,7 @@
         <v>-2e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45063.39196489583</v>
+        <v>45096.51158341607</v>
       </c>
     </row>
     <row r="3">
@@ -538,7 +538,7 @@
         <v>-2e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45063.39196489583</v>
+        <v>45096.51158341607</v>
       </c>
     </row>
     <row r="4">
@@ -555,7 +555,7 @@
         <v>-2e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45063.39196510417</v>
+        <v>45096.51158357813</v>
       </c>
     </row>
     <row r="5">
@@ -572,7 +572,7 @@
         <v>-2e-08</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45063.39196489583</v>
+        <v>45096.51158341607</v>
       </c>
     </row>
   </sheetData>
@@ -630,7 +630,7 @@
         <v>-1.23340294e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45063.38767077546</v>
+        <v>45096.50893650463</v>
       </c>
     </row>
     <row r="3">
@@ -647,7 +647,7 @@
         <v>-1.23340294e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45063.38767108796</v>
+        <v>45096.50893666667</v>
       </c>
     </row>
     <row r="4">
@@ -664,7 +664,7 @@
         <v>-1.23340294e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45063.38767108796</v>
+        <v>45096.50893666667</v>
       </c>
     </row>
     <row r="5">
@@ -681,7 +681,7 @@
         <v>-1.23340294e-09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45063.38767108796</v>
+        <v>45096.50893666667</v>
       </c>
     </row>
     <row r="6">
@@ -698,7 +698,7 @@
         <v>-1.23340294e-09</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45063.38767077546</v>
+        <v>45096.50893650463</v>
       </c>
     </row>
     <row r="7">
@@ -715,7 +715,7 @@
         <v>-1.23340294e-09</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45063.38767077546</v>
+        <v>45096.50893650463</v>
       </c>
     </row>
     <row r="8">
@@ -732,7 +732,7 @@
         <v>-1.23340294e-09</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>45063.38767077546</v>
+        <v>45096.50893650463</v>
       </c>
     </row>
   </sheetData>
@@ -790,7 +790,7 @@
         <v>-1.4e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45063.38843021991</v>
+        <v>45096.50927262731</v>
       </c>
     </row>
     <row r="3">
@@ -807,7 +807,7 @@
         <v>-1.4e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45063.38843021991</v>
+        <v>45096.50927262731</v>
       </c>
     </row>
     <row r="4">
@@ -824,7 +824,7 @@
         <v>-1.4e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45063.38843055555</v>
+        <v>45096.5092727662</v>
       </c>
     </row>
     <row r="5">
@@ -841,7 +841,7 @@
         <v>-1.4e-09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45063.38843021991</v>
+        <v>45096.50927262731</v>
       </c>
     </row>
     <row r="6">
@@ -858,7 +858,7 @@
         <v>-1.4e-09</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45063.38843021991</v>
+        <v>45096.50927262731</v>
       </c>
     </row>
   </sheetData>
@@ -916,7 +916,7 @@
         <v>-1.37160175e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45063.38916449074</v>
+        <v>45096.50959040509</v>
       </c>
     </row>
     <row r="3">
@@ -933,7 +933,7 @@
         <v>-1.37160175e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45063.38916467593</v>
+        <v>45096.50959050926</v>
       </c>
     </row>
     <row r="4">
@@ -950,7 +950,7 @@
         <v>-1.37160175e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45063.38916467593</v>
+        <v>45096.50959050926</v>
       </c>
     </row>
     <row r="5">
@@ -967,7 +967,7 @@
         <v>-1.37160175e-09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45063.38916449074</v>
+        <v>45096.50959040509</v>
       </c>
     </row>
   </sheetData>
@@ -1025,7 +1025,7 @@
         <v>-2e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45063.38960195602</v>
+        <v>45096.509836875</v>
       </c>
     </row>
     <row r="3">
@@ -1042,7 +1042,7 @@
         <v>-2e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45063.38960195602</v>
+        <v>45096.509836875</v>
       </c>
     </row>
     <row r="4">
@@ -1059,7 +1059,7 @@
         <v>-2e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45063.38960195602</v>
+        <v>45096.509836875</v>
       </c>
     </row>
     <row r="5">
@@ -1076,7 +1076,7 @@
         <v>-2e-09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45063.38960195602</v>
+        <v>45096.509836875</v>
       </c>
     </row>
   </sheetData>
@@ -1134,7 +1134,7 @@
         <v>-1.8e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45063.38987225694</v>
+        <v>45096.51002239584</v>
       </c>
     </row>
     <row r="3">
@@ -1151,7 +1151,7 @@
         <v>-1.8e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45063.38987225694</v>
+        <v>45096.51002239584</v>
       </c>
     </row>
     <row r="4">
@@ -1168,7 +1168,7 @@
         <v>-1.8e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45063.38987225694</v>
+        <v>45096.51002239584</v>
       </c>
     </row>
   </sheetData>
@@ -1226,7 +1226,7 @@
         <v>-3e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45063.38998658565</v>
+        <v>45096.51011625</v>
       </c>
     </row>
     <row r="3">
@@ -1243,7 +1243,7 @@
         <v>-3e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45063.38998658565</v>
+        <v>45096.51011625</v>
       </c>
     </row>
     <row r="4">
@@ -1260,7 +1260,7 @@
         <v>-3e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45063.38998658565</v>
+        <v>45096.51011625</v>
       </c>
     </row>
   </sheetData>
@@ -1318,7 +1318,7 @@
         <v>-2.5e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45063.39017736111</v>
+        <v>45096.51023998843</v>
       </c>
     </row>
     <row r="3">
@@ -1335,7 +1335,7 @@
         <v>-2.5e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45063.39017736111</v>
+        <v>45096.51023998843</v>
       </c>
     </row>
     <row r="4">
@@ -1352,7 +1352,7 @@
         <v>-2.5e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45063.39017736111</v>
+        <v>45096.51023998843</v>
       </c>
     </row>
     <row r="5">
@@ -1369,7 +1369,7 @@
         <v>-2.5e-08</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45063.39017736111</v>
+        <v>45096.51023998843</v>
       </c>
     </row>
     <row r="6">
@@ -1386,7 +1386,7 @@
         <v>-2.5e-08</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45063.39017736111</v>
+        <v>45096.51023998843</v>
       </c>
     </row>
   </sheetData>
@@ -1444,7 +1444,7 @@
         <v>-2.8e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45063.39033200232</v>
+        <v>45096.51034395833</v>
       </c>
     </row>
     <row r="3">
@@ -1461,7 +1461,7 @@
         <v>-2.8e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45063.39033200232</v>
+        <v>45096.51034395833</v>
       </c>
     </row>
     <row r="4">
@@ -1478,7 +1478,7 @@
         <v>-2.8e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45063.39033200232</v>
+        <v>45096.51034395833</v>
       </c>
     </row>
     <row r="5">
@@ -1495,7 +1495,7 @@
         <v>-2.8e-08</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45063.39033200232</v>
+        <v>45096.51034395833</v>
       </c>
     </row>
   </sheetData>
@@ -1553,7 +1553,7 @@
         <v>-1.4e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45063.39047476852</v>
+        <v>45096.510441875</v>
       </c>
     </row>
     <row r="3">
@@ -1570,7 +1570,7 @@
         <v>-1.4e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45063.39047476852</v>
+        <v>45096.510441875</v>
       </c>
     </row>
     <row r="4">
@@ -1587,7 +1587,7 @@
         <v>-1.4e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45063.39047476852</v>
+        <v>45096.510441875</v>
       </c>
     </row>
     <row r="5">
@@ -1604,7 +1604,7 @@
         <v>-1.4e-08</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45063.39047476852</v>
+        <v>45096.510441875</v>
       </c>
     </row>
   </sheetData>
@@ -1662,7 +1662,7 @@
         <v>-1e-07</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45063.39066450232</v>
+        <v>45096.51056390046</v>
       </c>
     </row>
     <row r="3">
@@ -1679,7 +1679,7 @@
         <v>-1e-07</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45063.39066450232</v>
+        <v>45096.51056390046</v>
       </c>
     </row>
     <row r="4">
@@ -1696,7 +1696,7 @@
         <v>-1e-07</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45063.39066450232</v>
+        <v>45096.51056390046</v>
       </c>
     </row>
   </sheetData>
@@ -1710,7 +1710,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1748,13 +1748,13 @@
         <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-9.557314370530433e-06</v>
+        <v>-9.580804480917463e-06</v>
       </c>
       <c r="D2" t="n">
         <v>-1.2032909e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45063.38241334491</v>
+        <v>45096.5062931713</v>
       </c>
     </row>
     <row r="3">
@@ -1765,13 +1765,13 @@
         <v>43015.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.194644845248043e-05</v>
+        <v>-1.196993856286746e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-1.2032909e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45063.38241334491</v>
+        <v>45096.50629331019</v>
       </c>
     </row>
     <row r="4">
@@ -1779,16 +1779,33 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>44443.5</v>
+        <v>43467</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.209947456243755e-05</v>
+        <v>-1.235191816021002e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-1.2032909e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45063.38241334491</v>
+        <v>45096.5062931713</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>44443.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.21000272712855e-05</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-1.2032909e-09</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>45096.5062931713</v>
       </c>
     </row>
   </sheetData>
@@ -1846,7 +1863,7 @@
         <v>-1.8e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45063.39081635416</v>
+        <v>45096.51066295139</v>
       </c>
     </row>
     <row r="3">
@@ -1863,7 +1880,7 @@
         <v>-1.8e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45063.39081635416</v>
+        <v>45096.51066295139</v>
       </c>
     </row>
     <row r="4">
@@ -1880,7 +1897,7 @@
         <v>-1.8e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45063.39081635416</v>
+        <v>45096.51066295139</v>
       </c>
     </row>
   </sheetData>
@@ -1938,7 +1955,7 @@
         <v>-2e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45063.39097048611</v>
+        <v>45096.51076696759</v>
       </c>
     </row>
     <row r="3">
@@ -1955,7 +1972,7 @@
         <v>-2e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45063.39097048611</v>
+        <v>45096.51076696759</v>
       </c>
     </row>
     <row r="4">
@@ -1972,7 +1989,7 @@
         <v>-2e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45063.39097048611</v>
+        <v>45096.51076696759</v>
       </c>
     </row>
     <row r="5">
@@ -1989,7 +2006,7 @@
         <v>-2e-08</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45063.39097048611</v>
+        <v>45096.51076696759</v>
       </c>
     </row>
   </sheetData>
@@ -2047,7 +2064,7 @@
         <v>-5e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45063.39122842593</v>
+        <v>45096.51097048611</v>
       </c>
     </row>
     <row r="3">
@@ -2064,7 +2081,7 @@
         <v>-5e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45063.39122869213</v>
+        <v>45096.51097072916</v>
       </c>
     </row>
     <row r="4">
@@ -2081,7 +2098,7 @@
         <v>-5e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45063.39122842593</v>
+        <v>45096.51097048611</v>
       </c>
     </row>
     <row r="5">
@@ -2098,7 +2115,7 @@
         <v>-5e-09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45063.39122842593</v>
+        <v>45096.51097048611</v>
       </c>
     </row>
     <row r="6">
@@ -2115,7 +2132,7 @@
         <v>-5e-09</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45063.39122869213</v>
+        <v>45096.51097072916</v>
       </c>
     </row>
   </sheetData>
@@ -2173,7 +2190,7 @@
         <v>-3e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45063.39150625</v>
+        <v>45096.51120732639</v>
       </c>
     </row>
     <row r="3">
@@ -2190,7 +2207,7 @@
         <v>-3e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45063.39150643518</v>
+        <v>45096.5112075463</v>
       </c>
     </row>
     <row r="4">
@@ -2207,7 +2224,7 @@
         <v>-3e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45063.39150625</v>
+        <v>45096.51120732639</v>
       </c>
     </row>
     <row r="5">
@@ -2224,7 +2241,7 @@
         <v>-3e-08</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45063.39150625</v>
+        <v>45096.51120732639</v>
       </c>
     </row>
   </sheetData>
@@ -2282,7 +2299,7 @@
         <v>-5e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45063.39167180556</v>
+        <v>45096.51134891203</v>
       </c>
     </row>
     <row r="3">
@@ -2299,7 +2316,7 @@
         <v>-5e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45063.39167180556</v>
+        <v>45096.51134891203</v>
       </c>
     </row>
     <row r="4">
@@ -2316,7 +2333,7 @@
         <v>-5e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45063.39167180556</v>
+        <v>45096.51134891203</v>
       </c>
     </row>
     <row r="5">
@@ -2333,7 +2350,7 @@
         <v>-5e-08</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45063.39167180556</v>
+        <v>45096.51134891203</v>
       </c>
     </row>
   </sheetData>
@@ -2391,7 +2408,7 @@
         <v>-4.99102734e-10</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45063.38293293981</v>
+        <v>45096.50654289352</v>
       </c>
     </row>
     <row r="3">
@@ -2408,7 +2425,7 @@
         <v>-4.99102734e-10</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45063.38293293981</v>
+        <v>45096.50654289352</v>
       </c>
     </row>
     <row r="4">
@@ -2425,7 +2442,7 @@
         <v>-4.99102734e-10</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45063.38293293981</v>
+        <v>45096.50654289352</v>
       </c>
     </row>
   </sheetData>
@@ -2483,7 +2500,7 @@
         <v>-1.31926556e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45063.38366693287</v>
+        <v>45096.50686523148</v>
       </c>
     </row>
     <row r="3">
@@ -2500,7 +2517,7 @@
         <v>-1.31926556e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45063.38366711805</v>
+        <v>45096.50686537037</v>
       </c>
     </row>
     <row r="4">
@@ -2517,7 +2534,7 @@
         <v>-1.31926556e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45063.38366711805</v>
+        <v>45096.50686537037</v>
       </c>
     </row>
     <row r="5">
@@ -2534,7 +2551,7 @@
         <v>-1.31926556e-09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45063.38366693287</v>
+        <v>45096.50686523148</v>
       </c>
     </row>
   </sheetData>
@@ -2592,7 +2609,7 @@
         <v>-4.76097119e-10</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45063.3841554051</v>
+        <v>45096.50712299768</v>
       </c>
     </row>
     <row r="3">
@@ -2609,7 +2626,7 @@
         <v>-4.76097119e-10</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45063.3841554051</v>
+        <v>45096.50712299768</v>
       </c>
     </row>
     <row r="4">
@@ -2626,7 +2643,7 @@
         <v>-4.76097119e-10</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45063.3841554051</v>
+        <v>45096.50712299768</v>
       </c>
     </row>
     <row r="5">
@@ -2643,7 +2660,7 @@
         <v>-4.76097119e-10</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45063.3841554051</v>
+        <v>45096.50712299768</v>
       </c>
     </row>
   </sheetData>
@@ -2701,7 +2718,7 @@
         <v>-8.12359361e-10</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45063.38505211806</v>
+        <v>45096.50749451389</v>
       </c>
     </row>
     <row r="3">
@@ -2718,7 +2735,7 @@
         <v>-8.12359361e-10</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45063.38505234953</v>
+        <v>45096.50749466435</v>
       </c>
     </row>
     <row r="4">
@@ -2735,7 +2752,7 @@
         <v>-8.12359361e-10</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45063.38505234953</v>
+        <v>45096.50749466435</v>
       </c>
     </row>
     <row r="5">
@@ -2752,7 +2769,7 @@
         <v>-8.12359361e-10</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45063.38505211806</v>
+        <v>45096.50749451389</v>
       </c>
     </row>
     <row r="6">
@@ -2769,7 +2786,7 @@
         <v>-8.12359361e-10</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45063.38505211806</v>
+        <v>45096.50749451389</v>
       </c>
     </row>
   </sheetData>
@@ -2827,7 +2844,7 @@
         <v>-1.5e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45063.38566576389</v>
+        <v>45096.50780311343</v>
       </c>
     </row>
     <row r="3">
@@ -2844,7 +2861,7 @@
         <v>-1.5e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45063.3856659838</v>
+        <v>45096.50780325232</v>
       </c>
     </row>
     <row r="4">
@@ -2861,7 +2878,7 @@
         <v>-1.5e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45063.38566576389</v>
+        <v>45096.50780311343</v>
       </c>
     </row>
     <row r="5">
@@ -2878,7 +2895,7 @@
         <v>-1.5e-09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45063.38566576389</v>
+        <v>45096.50780311343</v>
       </c>
     </row>
   </sheetData>
@@ -2936,7 +2953,7 @@
         <v>-4.70430499e-10</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45068.67083403029</v>
+        <v>45096.5080496412</v>
       </c>
     </row>
     <row r="3">
@@ -2953,7 +2970,7 @@
         <v>-4.70430499e-10</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45068.67083403029</v>
+        <v>45096.5080496412</v>
       </c>
     </row>
     <row r="4">
@@ -2970,7 +2987,7 @@
         <v>-4.70430499e-10</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45068.67083403029</v>
+        <v>45096.5080496412</v>
       </c>
     </row>
     <row r="5">
@@ -2987,7 +3004,7 @@
         <v>-4.70430499e-10</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45068.67083403029</v>
+        <v>45096.5080496412</v>
       </c>
     </row>
   </sheetData>
@@ -3045,7 +3062,7 @@
         <v>-7.70458001e-10</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45063.38672637731</v>
+        <v>45096.50840765046</v>
       </c>
     </row>
     <row r="3">
@@ -3062,7 +3079,7 @@
         <v>-7.70458001e-10</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45063.38672637731</v>
+        <v>45096.50840765046</v>
       </c>
     </row>
     <row r="4">
@@ -3079,7 +3096,7 @@
         <v>-7.70458001e-10</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45063.3867266551</v>
+        <v>45096.50840782408</v>
       </c>
     </row>
     <row r="5">
@@ -3096,7 +3113,7 @@
         <v>-7.70458001e-10</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45063.38672637731</v>
+        <v>45096.50840765046</v>
       </c>
     </row>
     <row r="6">
@@ -3113,7 +3130,7 @@
         <v>-7.70458001e-10</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45063.38672637731</v>
+        <v>45096.50840765046</v>
       </c>
     </row>
   </sheetData>

--- a/productiecapaciteit/results/Leidingweerstand/Leidingweerstand_modelcoefficienten.xlsx
+++ b/productiecapaciteit/results/Leidingweerstand/Leidingweerstand_modelcoefficienten.xlsx
@@ -521,7 +521,7 @@
         <v>-2e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45096.51158341607</v>
+        <v>45096.51158341435</v>
       </c>
     </row>
     <row r="3">
@@ -538,7 +538,7 @@
         <v>-2e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45096.51158341607</v>
+        <v>45096.51158341435</v>
       </c>
     </row>
     <row r="4">
@@ -555,7 +555,7 @@
         <v>-2e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45096.51158357813</v>
+        <v>45096.51158357639</v>
       </c>
     </row>
     <row r="5">
@@ -572,7 +572,7 @@
         <v>-2e-08</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45096.51158341607</v>
+        <v>45096.51158341435</v>
       </c>
     </row>
   </sheetData>
@@ -621,16 +621,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>41030</v>
+        <v>41035.97916666666</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.212796480347737e-05</v>
+        <v>-1.234103346351092e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.23340294e-09</v>
+        <v>-1.23e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45096.50893650463</v>
+        <v>45657.54015164352</v>
       </c>
     </row>
     <row r="3">
@@ -641,13 +641,13 @@
         <v>41682</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.293214352035737e-05</v>
+        <v>-1.313563908851092e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.23340294e-09</v>
+        <v>-1.23e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45096.50893666667</v>
+        <v>45657.54015172453</v>
       </c>
     </row>
     <row r="4">
@@ -658,13 +658,13 @@
         <v>42319</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.371782119313737e-05</v>
+        <v>-1.391914908851092e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.23340294e-09</v>
+        <v>-1.23e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45096.50893666667</v>
+        <v>45657.54015172453</v>
       </c>
     </row>
     <row r="5">
@@ -675,13 +675,13 @@
         <v>43057.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.462868926432737e-05</v>
+        <v>-1.482750408851092e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.23340294e-09</v>
+        <v>-1.23e-09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45096.50893666667</v>
+        <v>45657.54015172453</v>
       </c>
     </row>
     <row r="6">
@@ -692,13 +692,13 @@
         <v>43355</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.320670880977817e-05</v>
+        <v>-1.333925029812126e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.23340294e-09</v>
+        <v>-1.23e-09</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45096.50893650463</v>
+        <v>45657.54015164352</v>
       </c>
     </row>
     <row r="7">
@@ -709,13 +709,13 @@
         <v>43719</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.345589031662737e-05</v>
+        <v>-1.354918647600766e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.23340294e-09</v>
+        <v>-1.23e-09</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45096.50893650463</v>
+        <v>45657.54015164352</v>
       </c>
     </row>
     <row r="8">
@@ -726,13 +726,13 @@
         <v>44464.5</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.376941013615615e-05</v>
+        <v>-1.226796616201782e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.23340294e-09</v>
+        <v>-1.23e-09</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>45096.50893650463</v>
+        <v>45657.54015164352</v>
       </c>
     </row>
   </sheetData>
@@ -784,13 +784,13 @@
         <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.028381847523073e-06</v>
+        <v>-6.111882445032339e-06</v>
       </c>
       <c r="D2" t="n">
         <v>-1.4e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45096.50927262731</v>
+        <v>45657.5403791088</v>
       </c>
     </row>
     <row r="3">
@@ -801,13 +801,13 @@
         <v>42350.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-6.253743847479116e-06</v>
+        <v>-5.616123389944509e-06</v>
       </c>
       <c r="D3" t="n">
         <v>-1.4e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45096.50927262731</v>
+        <v>45657.5403791088</v>
       </c>
     </row>
     <row r="4">
@@ -818,13 +818,13 @@
         <v>43428.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.762943847479116e-06</v>
+        <v>-7.125323389944509e-06</v>
       </c>
       <c r="D4" t="n">
         <v>-1.4e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45096.5092727662</v>
+        <v>45657.54037918981</v>
       </c>
     </row>
     <row r="5">
@@ -835,13 +835,13 @@
         <v>43792.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.965033485526009e-06</v>
+        <v>-5.827565334607773e-06</v>
       </c>
       <c r="D5" t="n">
         <v>-1.4e-09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45096.50927262731</v>
+        <v>45657.5403791088</v>
       </c>
     </row>
     <row r="6">
@@ -852,13 +852,13 @@
         <v>44807.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-7.031108025192126e-06</v>
+        <v>-5.217831045153544e-06</v>
       </c>
       <c r="D6" t="n">
         <v>-1.4e-09</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45096.50927262731</v>
+        <v>45657.5403791088</v>
       </c>
     </row>
   </sheetData>
@@ -910,13 +910,13 @@
         <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.525439749933411e-06</v>
+        <v>-6.018697437020036e-06</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.37160175e-09</v>
+        <v>-1.37e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45096.50959040509</v>
+        <v>45657.54068890047</v>
       </c>
     </row>
     <row r="3">
@@ -927,13 +927,13 @@
         <v>42049.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-6.923787734058412e-06</v>
+        <v>-7.415412437020036e-06</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.37160175e-09</v>
+        <v>-1.37e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45096.50959050926</v>
+        <v>45657.54068903935</v>
       </c>
     </row>
     <row r="4">
@@ -944,13 +944,13 @@
         <v>43446</v>
       </c>
       <c r="C4" t="n">
-        <v>-8.839229577933412e-06</v>
+        <v>-9.328617437020036e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.37160175e-09</v>
+        <v>-1.37e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45096.50959050926</v>
+        <v>45657.54068903935</v>
       </c>
     </row>
     <row r="5">
@@ -961,13 +961,13 @@
         <v>43841.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.740333923219566e-06</v>
+        <v>-5.83149117296834e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.37160175e-09</v>
+        <v>-1.37e-09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45096.50959040509</v>
+        <v>45657.54068890047</v>
       </c>
     </row>
   </sheetData>
@@ -1016,16 +1016,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>41030</v>
+        <v>41030.97916666666</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.9539398195634e-06</v>
+        <v>-8.00106841502271e-06</v>
       </c>
       <c r="D2" t="n">
         <v>-2e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45096.509836875</v>
+        <v>45657.54090913876</v>
       </c>
     </row>
     <row r="3">
@@ -1036,13 +1036,13 @@
         <v>41899</v>
       </c>
       <c r="C3" t="n">
-        <v>-8.391472213374146e-06</v>
+        <v>-8.5780375932064e-06</v>
       </c>
       <c r="D3" t="n">
         <v>-2e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45096.509836875</v>
+        <v>45657.54090913876</v>
       </c>
     </row>
     <row r="4">
@@ -1053,13 +1053,13 @@
         <v>44104</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.159928599314662e-05</v>
+        <v>-1.197094368682955e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-2e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45096.509836875</v>
+        <v>45657.54090913876</v>
       </c>
     </row>
     <row r="5">
@@ -1070,13 +1070,13 @@
         <v>44895</v>
       </c>
       <c r="C5" t="n">
-        <v>-8.896608701652716e-06</v>
+        <v>-1.016169640946589e-05</v>
       </c>
       <c r="D5" t="n">
         <v>-2e-09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45096.509836875</v>
+        <v>45657.54090913876</v>
       </c>
     </row>
   </sheetData>
@@ -1745,16 +1745,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>41030</v>
+        <v>41030.97916666666</v>
       </c>
       <c r="C2" t="n">
-        <v>-9.580804480917463e-06</v>
+        <v>-9.812742932787027e-06</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.2032909e-09</v>
+        <v>-1.2e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45096.5062931713</v>
+        <v>45657.5382174537</v>
       </c>
     </row>
     <row r="3">
@@ -1765,13 +1765,13 @@
         <v>43015.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.196993856286746e-05</v>
+        <v>-1.219416793278703e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.2032909e-09</v>
+        <v>-1.2e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45096.50629331019</v>
+        <v>45657.53821756945</v>
       </c>
     </row>
     <row r="4">
@@ -1782,13 +1782,13 @@
         <v>43467</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.235191816021002e-05</v>
+        <v>-1.249929159773437e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.2032909e-09</v>
+        <v>-1.2e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45096.5062931713</v>
+        <v>45657.5382174537</v>
       </c>
     </row>
     <row r="5">
@@ -1799,13 +1799,13 @@
         <v>44443.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.21000272712855e-05</v>
+        <v>-1.146513897339869e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.2032909e-09</v>
+        <v>-1.2e-09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45096.5062931713</v>
+        <v>45657.5382174537</v>
       </c>
     </row>
   </sheetData>
@@ -2402,13 +2402,13 @@
         <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.483940767822277e-05</v>
+        <v>-1.482359601319953e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.99102734e-10</v>
+        <v>-4.99e-10</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45096.50654289352</v>
+        <v>45657.53840547454</v>
       </c>
     </row>
     <row r="3">
@@ -2419,13 +2419,13 @@
         <v>42707.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.54824699440243e-05</v>
+        <v>-1.548383080773783e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.99102734e-10</v>
+        <v>-4.99e-10</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45096.50654289352</v>
+        <v>45657.53840547454</v>
       </c>
     </row>
     <row r="4">
@@ -2436,13 +2436,13 @@
         <v>44128.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.477978347382625e-05</v>
+        <v>-1.546812433875638e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.99102734e-10</v>
+        <v>-4.99e-10</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45096.50654289352</v>
+        <v>45657.53840547454</v>
       </c>
     </row>
   </sheetData>
@@ -2494,13 +2494,13 @@
         <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.753668606103622e-06</v>
+        <v>-7.743839100585073e-06</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.31926556e-09</v>
+        <v>-1.32e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45096.50686523148</v>
+        <v>45657.53867140046</v>
       </c>
     </row>
     <row r="3">
@@ -2511,13 +2511,13 @@
         <v>41899</v>
       </c>
       <c r="C3" t="n">
-        <v>-8.900110377743622e-06</v>
+        <v>-8.890919100585073e-06</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.31926556e-09</v>
+        <v>-1.32e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45096.50686537037</v>
+        <v>45657.53867146991</v>
       </c>
     </row>
     <row r="4">
@@ -2528,13 +2528,13 @@
         <v>42987.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.033613093980362e-05</v>
+        <v>-1.032773910058507e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.31926556e-09</v>
+        <v>-1.32e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45096.50686537037</v>
+        <v>45657.53867146991</v>
       </c>
     </row>
     <row r="5">
@@ -2545,13 +2545,13 @@
         <v>44163.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.15470473652596e-05</v>
+        <v>-7.081335203104816e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.31926556e-09</v>
+        <v>-1.32e-09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45096.50686523148</v>
+        <v>45657.53867140046</v>
       </c>
     </row>
   </sheetData>
@@ -2603,13 +2603,13 @@
         <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-9.863223806424048e-06</v>
+        <v>-9.253206191052623e-06</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.76097119e-10</v>
+        <v>-4.76e-10</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45096.50712299768</v>
+        <v>45657.53885164352</v>
       </c>
     </row>
     <row r="3">
@@ -2620,13 +2620,13 @@
         <v>42795</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.01256349310922e-05</v>
+        <v>-9.384863941728345e-06</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.76097119e-10</v>
+        <v>-4.76e-10</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45096.50712299768</v>
+        <v>45657.53885164352</v>
       </c>
     </row>
     <row r="4">
@@ -2637,13 +2637,13 @@
         <v>44079.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-9.052266449026106e-06</v>
+        <v>-8.864197589164204e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.76097119e-10</v>
+        <v>-4.76e-10</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45096.50712299768</v>
+        <v>45657.53885164352</v>
       </c>
     </row>
     <row r="5">
@@ -2654,13 +2654,13 @@
         <v>44975.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.147963084161219e-06</v>
+        <v>-8.253573208534444e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.76097119e-10</v>
+        <v>-4.76e-10</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45096.50712299768</v>
+        <v>45657.53885164352</v>
       </c>
     </row>
   </sheetData>
@@ -2712,13 +2712,13 @@
         <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.567910706926116e-05</v>
+        <v>-1.567735900203139e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>-8.12359361e-10</v>
+        <v>-8.12e-10</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45096.50749451389</v>
+        <v>45657.53912391204</v>
       </c>
     </row>
     <row r="3">
@@ -2729,13 +2729,13 @@
         <v>42301.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.671202199677266e-05</v>
+        <v>-1.670981700203139e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>-8.12359361e-10</v>
+        <v>-8.12e-10</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45096.50749466435</v>
+        <v>45657.53912417824</v>
       </c>
     </row>
     <row r="4">
@@ -2746,13 +2746,13 @@
         <v>43386.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.759343190345766e-05</v>
+        <v>-1.759083700203139e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.12359361e-10</v>
+        <v>-8.12e-10</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45096.50749466435</v>
+        <v>45657.53912417824</v>
       </c>
     </row>
     <row r="5">
@@ -2763,13 +2763,13 @@
         <v>43750.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.565840444662489e-05</v>
+        <v>-1.575197772123149e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.12359361e-10</v>
+        <v>-8.12e-10</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45096.50749451389</v>
+        <v>45657.53912391204</v>
       </c>
     </row>
     <row r="6">
@@ -2780,13 +2780,13 @@
         <v>44954.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-8.812454048622684e-06</v>
+        <v>-8.814434289001204e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.12359361e-10</v>
+        <v>-8.12e-10</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45096.50749451389</v>
+        <v>45657.53912391204</v>
       </c>
     </row>
   </sheetData>
@@ -2838,13 +2838,13 @@
         <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.736800022515032e-05</v>
+        <v>-1.735425541454964e-05</v>
       </c>
       <c r="D2" t="n">
         <v>-1.5e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45096.50780311343</v>
+        <v>45657.53933913194</v>
       </c>
     </row>
     <row r="3">
@@ -2855,13 +2855,13 @@
         <v>42249</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.919650022515032e-05</v>
+        <v>-1.918275541454964e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-1.5e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45096.50780325232</v>
+        <v>45657.53933918982</v>
       </c>
     </row>
     <row r="4">
@@ -2872,13 +2872,13 @@
         <v>43040</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.957619258285438e-05</v>
+        <v>-1.934179400942103e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-1.5e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45096.50780311343</v>
+        <v>45657.53933913194</v>
       </c>
     </row>
     <row r="5">
@@ -2889,13 +2889,13 @@
         <v>44499.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.957836326053695e-05</v>
+        <v>-2.002349721098186e-05</v>
       </c>
       <c r="D5" t="n">
         <v>-1.5e-09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45096.50780311343</v>
+        <v>45657.53933913194</v>
       </c>
     </row>
   </sheetData>
@@ -2944,16 +2944,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>41030</v>
+        <v>41030.97916666666</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.147477366383637e-05</v>
+        <v>-1.141922310494986e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.70430499e-10</v>
+        <v>-4.7e-10</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45096.5080496412</v>
+        <v>45657.53954047454</v>
       </c>
     </row>
     <row r="3">
@@ -2964,13 +2964,13 @@
         <v>41871</v>
       </c>
       <c r="C3" t="n">
-        <v>-8.949418712531691e-06</v>
+        <v>-9.49886197188645e-06</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.70430499e-10</v>
+        <v>-4.7e-10</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45096.5080496412</v>
+        <v>45657.53954047454</v>
       </c>
     </row>
     <row r="4">
@@ -2981,13 +2981,13 @@
         <v>43082</v>
       </c>
       <c r="C4" t="n">
-        <v>-8.996541927002381e-06</v>
+        <v>-1.006803197188645e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.70430499e-10</v>
+        <v>-4.7e-10</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45096.5080496412</v>
+        <v>45657.53954060185</v>
       </c>
     </row>
     <row r="5">
@@ -2998,13 +2998,13 @@
         <v>44237</v>
       </c>
       <c r="C5" t="n">
-        <v>-9.247736124912621e-06</v>
+        <v>-9.514804369884435e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.70430499e-10</v>
+        <v>-4.7e-10</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45096.5080496412</v>
+        <v>45657.53954047454</v>
       </c>
     </row>
   </sheetData>
@@ -3056,13 +3056,13 @@
         <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.153329153877228e-05</v>
+        <v>-1.230349195937308e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.70458001e-10</v>
+        <v>-7.7e-10</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45096.50840765046</v>
+        <v>45657.53980603009</v>
       </c>
     </row>
     <row r="3">
@@ -3073,13 +3073,13 @@
         <v>42655</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.114986736468468e-05</v>
+        <v>-1.188855053699145e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.70458001e-10</v>
+        <v>-7.7e-10</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45096.50840765046</v>
+        <v>45657.53980603009</v>
       </c>
     </row>
     <row r="4">
@@ -3090,13 +3090,13 @@
         <v>43407.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.172963701043718e-05</v>
+        <v>-1.246797553699145e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.70458001e-10</v>
+        <v>-7.7e-10</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45096.50840782408</v>
+        <v>45657.53980618055</v>
       </c>
     </row>
     <row r="5">
@@ -3107,13 +3107,13 @@
         <v>43771.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.047021460825533e-05</v>
+        <v>-1.179156717366791e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>-7.70458001e-10</v>
+        <v>-7.7e-10</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45096.50840765046</v>
+        <v>45657.53980603009</v>
       </c>
     </row>
     <row r="6">
@@ -3124,13 +3124,13 @@
         <v>44541.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.064651176490904e-05</v>
+        <v>-1.098257305276865e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.70458001e-10</v>
+        <v>-7.7e-10</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45096.50840765046</v>
+        <v>45657.53980603009</v>
       </c>
     </row>
   </sheetData>

--- a/productiecapaciteit/results/Leidingweerstand/Leidingweerstand_modelcoefficienten.xlsx
+++ b/productiecapaciteit/results/Leidingweerstand/Leidingweerstand_modelcoefficienten.xlsx
@@ -477,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,13 +515,13 @@
         <v>42370</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.133845692394376e-05</v>
+        <v>-2.802055897500434e-05</v>
       </c>
       <c r="D2" t="n">
         <v>-2e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45096.51158341435</v>
+        <v>45659.67170076677</v>
       </c>
     </row>
     <row r="3">
@@ -532,13 +532,13 @@
         <v>42770.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.282443874492418e-05</v>
+        <v>-9.425152822870888e-06</v>
       </c>
       <c r="D3" t="n">
         <v>-2e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45096.51158341435</v>
+        <v>45659.67170076677</v>
       </c>
     </row>
     <row r="4">
@@ -549,13 +549,13 @@
         <v>43505.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.752443874492418e-05</v>
+        <v>-2.412515282287089e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-2e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45096.51158357639</v>
+        <v>45659.67170088244</v>
       </c>
     </row>
     <row r="5">
@@ -566,13 +566,30 @@
         <v>43866</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.591314835018135e-05</v>
+        <v>-2.489563420286195e-05</v>
       </c>
       <c r="D5" t="n">
         <v>-2e-08</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45096.51158341435</v>
+        <v>45659.67170076677</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>45304.5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2.984368849977133e-05</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-2e-08</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>45659.67170076677</v>
       </c>
     </row>
   </sheetData>
@@ -624,13 +641,13 @@
         <v>41035.97916666666</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.234103346351092e-05</v>
+        <v>-1.234132078470805e-05</v>
       </c>
       <c r="D2" t="n">
         <v>-1.23e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45657.54015164352</v>
+        <v>45659.66915939814</v>
       </c>
     </row>
     <row r="3">
@@ -638,16 +655,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>41682</v>
+        <v>42319</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.313563908851092e-05</v>
+        <v>-1.391943640970805e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-1.23e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45657.54015172453</v>
+        <v>45659.66915958333</v>
       </c>
     </row>
     <row r="4">
@@ -655,16 +672,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>42319</v>
+        <v>43057.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.391914908851092e-05</v>
+        <v>-1.482779140970805e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-1.23e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45657.54015172453</v>
+        <v>45659.66915958333</v>
       </c>
     </row>
     <row r="5">
@@ -672,16 +689,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>43057.5</v>
+        <v>43355</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.482750408851092e-05</v>
+        <v>-1.3339287621341e-05</v>
       </c>
       <c r="D5" t="n">
         <v>-1.23e-09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45657.54015172453</v>
+        <v>45659.66915939814</v>
       </c>
     </row>
     <row r="6">
@@ -689,16 +706,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>43355</v>
+        <v>43719</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.333925029812126e-05</v>
+        <v>-1.35465738874793e-05</v>
       </c>
       <c r="D6" t="n">
         <v>-1.23e-09</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45657.54015164352</v>
+        <v>45659.66915939814</v>
       </c>
     </row>
     <row r="7">
@@ -706,16 +723,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>43719</v>
+        <v>44464.5</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.354918647600766e-05</v>
+        <v>-1.319120417897136e-05</v>
       </c>
       <c r="D7" t="n">
         <v>-1.23e-09</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45657.54015164352</v>
+        <v>45659.66915939814</v>
       </c>
     </row>
     <row r="8">
@@ -723,16 +740,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>44464.5</v>
+        <v>45224</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.226796616201782e-05</v>
+        <v>-1.202790652512981e-05</v>
       </c>
       <c r="D8" t="n">
         <v>-1.23e-09</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>45657.54015164352</v>
+        <v>45659.66915939814</v>
       </c>
     </row>
   </sheetData>
@@ -790,7 +807,7 @@
         <v>-1.4e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45657.5403791088</v>
+        <v>45659.6694109838</v>
       </c>
     </row>
     <row r="3">
@@ -807,7 +824,7 @@
         <v>-1.4e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45657.5403791088</v>
+        <v>45659.6694109838</v>
       </c>
     </row>
     <row r="4">
@@ -824,7 +841,7 @@
         <v>-1.4e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45657.54037918981</v>
+        <v>45659.66941107639</v>
       </c>
     </row>
     <row r="5">
@@ -841,7 +858,7 @@
         <v>-1.4e-09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45657.5403791088</v>
+        <v>45659.6694109838</v>
       </c>
     </row>
     <row r="6">
@@ -858,7 +875,7 @@
         <v>-1.4e-09</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45657.5403791088</v>
+        <v>45659.6694109838</v>
       </c>
     </row>
   </sheetData>
@@ -916,7 +933,7 @@
         <v>-1.37e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45657.54068890047</v>
+        <v>45659.66969913195</v>
       </c>
     </row>
     <row r="3">
@@ -933,7 +950,7 @@
         <v>-1.37e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45657.54068903935</v>
+        <v>45659.66969918981</v>
       </c>
     </row>
     <row r="4">
@@ -950,7 +967,7 @@
         <v>-1.37e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45657.54068903935</v>
+        <v>45659.66969918981</v>
       </c>
     </row>
     <row r="5">
@@ -967,7 +984,7 @@
         <v>-1.37e-09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45657.54068890047</v>
+        <v>45659.66969913195</v>
       </c>
     </row>
   </sheetData>
@@ -981,7 +998,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1019,13 +1036,13 @@
         <v>41030.97916666666</v>
       </c>
       <c r="C2" t="n">
-        <v>-8.00106841502271e-06</v>
+        <v>-6.942354053685129e-06</v>
       </c>
       <c r="D2" t="n">
         <v>-2e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45657.54090913876</v>
+        <v>45659.66991203704</v>
       </c>
     </row>
     <row r="3">
@@ -1033,16 +1050,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>41899</v>
+        <v>44104</v>
       </c>
       <c r="C3" t="n">
-        <v>-8.5780375932064e-06</v>
+        <v>-1.19676697787385e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-2e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45657.54090913876</v>
+        <v>45659.66991203704</v>
       </c>
     </row>
     <row r="4">
@@ -1050,33 +1067,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>44104</v>
+        <v>44895</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.197094368682955e-05</v>
+        <v>-1.016158290300687e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-2e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45657.54090913876</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>44895</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-1.016169640946589e-05</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-2e-09</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>45657.54090913876</v>
+        <v>45659.66991203704</v>
       </c>
     </row>
   </sheetData>
@@ -1128,13 +1128,13 @@
         <v>42371</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.139635039255535e-06</v>
+        <v>-7.44800091196929e-06</v>
       </c>
       <c r="D2" t="n">
         <v>-1.8e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45096.51002239584</v>
+        <v>45659.67003353009</v>
       </c>
     </row>
     <row r="3">
@@ -1145,13 +1145,13 @@
         <v>43085.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.361933163665999e-05</v>
+        <v>-1.292068811157651e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-1.8e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45096.51002239584</v>
+        <v>45659.67003353009</v>
       </c>
     </row>
     <row r="4">
@@ -1162,13 +1162,13 @@
         <v>45003.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.157133149678603e-05</v>
+        <v>-3.439750673109834e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-1.8e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45096.51002239584</v>
+        <v>45659.67003353009</v>
       </c>
     </row>
   </sheetData>
@@ -1220,13 +1220,13 @@
         <v>42371</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.879316940300795e-05</v>
+        <v>-2.7359187296797e-05</v>
       </c>
       <c r="D2" t="n">
         <v>-3e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45096.51011625</v>
+        <v>45659.67015773148</v>
       </c>
     </row>
     <row r="3">
@@ -1234,16 +1234,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>43446</v>
+        <v>44146</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.017648481300143e-05</v>
+        <v>-2.92374286509668e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-3e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45096.51011625</v>
+        <v>45659.67015773148</v>
       </c>
     </row>
     <row r="4">
@@ -1251,16 +1251,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>44146</v>
+        <v>45346.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.756543414853587e-05</v>
+        <v>-3.165884693748427e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-3e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45096.51011625</v>
+        <v>45659.67015773148</v>
       </c>
     </row>
   </sheetData>
@@ -1312,13 +1312,13 @@
         <v>42371</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.412958800228962e-06</v>
+        <v>-2.955490462504115e-06</v>
       </c>
       <c r="D2" t="n">
         <v>-2.5e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45096.51023998843</v>
+        <v>45659.67029115741</v>
       </c>
     </row>
     <row r="3">
@@ -1329,13 +1329,13 @@
         <v>43533.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.145691511363074e-05</v>
+        <v>-3.124221277063376e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-2.5e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45096.51023998843</v>
+        <v>45659.67029115741</v>
       </c>
     </row>
     <row r="4">
@@ -1346,13 +1346,13 @@
         <v>43897.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.550632277028458e-06</v>
+        <v>-7.359771325487263e-06</v>
       </c>
       <c r="D4" t="n">
         <v>-2.5e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45096.51023998843</v>
+        <v>45659.67029115741</v>
       </c>
     </row>
     <row r="5">
@@ -1363,13 +1363,13 @@
         <v>44569.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-6.153460815620658e-06</v>
+        <v>-7.543680798149138e-06</v>
       </c>
       <c r="D5" t="n">
         <v>-2.5e-08</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45096.51023998843</v>
+        <v>45659.67029115741</v>
       </c>
     </row>
     <row r="6">
@@ -1380,13 +1380,13 @@
         <v>44912.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-8.947036562263085e-06</v>
+        <v>-7.156523879810099e-06</v>
       </c>
       <c r="D6" t="n">
         <v>-2.5e-08</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45096.51023998843</v>
+        <v>45659.67029115741</v>
       </c>
     </row>
   </sheetData>
@@ -1400,7 +1400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1438,13 +1438,13 @@
         <v>42371</v>
       </c>
       <c r="C2" t="n">
-        <v>-8.064238077193398e-06</v>
+        <v>-1.573126691463774e-74</v>
       </c>
       <c r="D2" t="n">
         <v>-2.8e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45096.51034395833</v>
+        <v>45659.6704262037</v>
       </c>
     </row>
     <row r="3">
@@ -1452,16 +1452,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>43141.5</v>
+        <v>44268.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-6.465110954530331e-06</v>
+        <v>-1.012480020329743e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-2.8e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45096.51034395833</v>
+        <v>45659.6704262037</v>
       </c>
     </row>
     <row r="4">
@@ -1469,33 +1469,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>44268.5</v>
+        <v>44611.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-9.191429146696417e-06</v>
+        <v>-1.265094030914668e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-2.8e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45096.51034395833</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>44611.5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-4.563967675936564e-06</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-2.8e-08</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>45096.51034395833</v>
+        <v>45659.6704262037</v>
       </c>
     </row>
   </sheetData>
@@ -1509,7 +1492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1547,13 +1530,13 @@
         <v>42371</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.540119924107129e-05</v>
+        <v>-2.627297775105239e-05</v>
       </c>
       <c r="D2" t="n">
         <v>-1.4e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45096.510441875</v>
+        <v>45659.67056368056</v>
       </c>
     </row>
     <row r="3">
@@ -1564,13 +1547,13 @@
         <v>42812.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.047081437173477e-05</v>
+        <v>-2.114921410447508e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-1.4e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45096.510441875</v>
+        <v>45659.67056368056</v>
       </c>
     </row>
     <row r="4">
@@ -1581,13 +1564,13 @@
         <v>43477.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.614460605512416e-05</v>
+        <v>-2.684828686718866e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-1.4e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45096.510441875</v>
+        <v>45659.67056368056</v>
       </c>
     </row>
     <row r="5">
@@ -1598,13 +1581,30 @@
         <v>43803</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.264540057131829e-05</v>
+        <v>-2.325638778777399e-05</v>
       </c>
       <c r="D5" t="n">
         <v>-1.4e-08</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45096.510441875</v>
+        <v>45659.67056368056</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>45325.5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1.673715848000157e-05</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-1.4e-08</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>45659.67056368056</v>
       </c>
     </row>
   </sheetData>
@@ -1656,13 +1656,13 @@
         <v>42461.45833333334</v>
       </c>
       <c r="C2" t="n">
-        <v>-8.110254054338176e-10</v>
+        <v>-5.410659437512891e-33</v>
       </c>
       <c r="D2" t="n">
         <v>-1e-07</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45096.51056390046</v>
+        <v>45659.6706671875</v>
       </c>
     </row>
     <row r="3">
@@ -1673,13 +1673,13 @@
         <v>42637.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-9.27496933616731e-07</v>
+        <v>-6.607210011947935e-39</v>
       </c>
       <c r="D3" t="n">
         <v>-1e-07</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45096.51056390046</v>
+        <v>45659.6706671875</v>
       </c>
     </row>
     <row r="4">
@@ -1690,13 +1690,13 @@
         <v>44170.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-6.209587713609459e-05</v>
+        <v>-1.37988660812339e-28</v>
       </c>
       <c r="D4" t="n">
         <v>-1e-07</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45096.51056390046</v>
+        <v>45659.6706671875</v>
       </c>
     </row>
   </sheetData>
@@ -1705,6 +1705,98 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>datum</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>offset</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>slope</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>gewijzigd</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>41030.97916666666</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-9.784134055126342e-06</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-1.2e-09</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>45659.6668087037</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>43015.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.216555905512634e-05</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-1.2e-09</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>45659.66680875</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>44443.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.146806867770291e-05</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-1.2e-09</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>45659.6668087037</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1745,16 +1837,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>41030.97916666666</v>
+        <v>42370</v>
       </c>
       <c r="C2" t="n">
-        <v>-9.812742932787027e-06</v>
+        <v>-4.991236965992761e-06</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.2e-09</v>
+        <v>-1.8e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45657.5382174537</v>
+        <v>45659.67113267361</v>
       </c>
     </row>
     <row r="3">
@@ -1762,16 +1854,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>43015.5</v>
+        <v>43120.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.219416793278703e-05</v>
+        <v>-1.35510722814229e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.2e-09</v>
+        <v>-1.8e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45657.53821756945</v>
+        <v>45659.67113267361</v>
       </c>
     </row>
     <row r="4">
@@ -1779,16 +1871,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>43467</v>
+        <v>44590.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.249929159773437e-05</v>
+        <v>-3.984537358410121e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.2e-09</v>
+        <v>-1.8e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45657.5382174537</v>
+        <v>45659.67113267361</v>
       </c>
     </row>
     <row r="5">
@@ -1796,16 +1888,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>44443.5</v>
+        <v>45241.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.146513897339869e-05</v>
+        <v>-1.333469783370846e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.2e-09</v>
+        <v>-1.8e-08</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45657.5382174537</v>
+        <v>45659.67113267361</v>
       </c>
     </row>
   </sheetData>
@@ -1813,7 +1905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1857,13 +1949,13 @@
         <v>42370</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.991771412584043e-06</v>
+        <v>-2.958911472058064e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.8e-08</v>
+        <v>-2e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45096.51066295139</v>
+        <v>45659.67126690973</v>
       </c>
     </row>
     <row r="3">
@@ -1871,16 +1963,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>43120.5</v>
+        <v>44044.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.355117977499214e-05</v>
+        <v>-1.907178119902214e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.8e-08</v>
+        <v>-2e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45096.51066295139</v>
+        <v>45659.67126690973</v>
       </c>
     </row>
     <row r="4">
@@ -1888,16 +1980,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>44590.5</v>
+        <v>44520.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.633411216426398e-05</v>
+        <v>-8.532057661503684e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.8e-08</v>
+        <v>-2e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45096.51066295139</v>
+        <v>45659.67126690973</v>
       </c>
     </row>
   </sheetData>
@@ -1905,7 +1997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1949,13 +2041,13 @@
         <v>42370</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.598179169762667e-06</v>
+        <v>-4.229835150535184e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>-2e-08</v>
+        <v>-5e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45096.51076696759</v>
+        <v>45659.67136357639</v>
       </c>
     </row>
     <row r="3">
@@ -1963,16 +2055,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>43190.5</v>
+        <v>43141.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-5.091701641842972e-06</v>
+        <v>-2.519635139879152e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>-2e-08</v>
+        <v>-5e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45096.51076696759</v>
+        <v>45659.67136357639</v>
       </c>
     </row>
     <row r="4">
@@ -1980,16 +2072,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>44044.5</v>
+        <v>44202</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.891732763445158e-05</v>
+        <v>-2.651312656570703e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>-2e-08</v>
+        <v>-5e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45096.51076696759</v>
+        <v>45659.67136357639</v>
       </c>
     </row>
     <row r="5">
@@ -1997,16 +2089,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>44520.5</v>
+        <v>44258</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.02919361612917e-05</v>
+        <v>-2.679312656570703e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>-2e-08</v>
+        <v>-5e-09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45096.51076696759</v>
+        <v>45659.67136365741</v>
       </c>
     </row>
   </sheetData>
@@ -2014,7 +2106,99 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>datum</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>offset</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>slope</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>gewijzigd</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>42461.45833333334</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-7.250806170131382e-06</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-3e-08</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>45659.67148185185</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>43169.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-5.215249744043546e-06</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-3e-08</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>45659.67148185185</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>44933.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2.630546383099005e-05</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-3e-08</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>45659.67148185185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2055,16 +2239,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>42370</v>
+        <v>42396.625</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.437098572414022e-05</v>
+        <v>-8.28407018000315e-06</v>
       </c>
       <c r="D2" t="n">
-        <v>-5e-09</v>
+        <v>-5e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45096.51097048611</v>
+        <v>45659.67157892361</v>
       </c>
     </row>
     <row r="3">
@@ -2072,16 +2256,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>43141.5</v>
+        <v>42679.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.822848572414022e-05</v>
+        <v>-1.047022210952271e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>-5e-09</v>
+        <v>-5e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45096.51097072916</v>
+        <v>45659.67157892361</v>
       </c>
     </row>
     <row r="4">
@@ -2089,16 +2273,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>43502</v>
+        <v>44286</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.287240675995071e-05</v>
+        <v>-1.755165713009394e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>-5e-09</v>
+        <v>-5e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45096.51097048611</v>
+        <v>45659.67157892361</v>
       </c>
     </row>
     <row r="5">
@@ -2106,16 +2290,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>44202</v>
+        <v>44849.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.744910235547772e-05</v>
+        <v>-2.107724943352393e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>-5e-09</v>
+        <v>-5e-08</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45096.51097048611</v>
+        <v>45659.67157892361</v>
       </c>
     </row>
     <row r="6">
@@ -2123,234 +2307,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>44258</v>
+        <v>45269.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.772910235547772e-05</v>
+        <v>-1.872377188299808e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>-5e-09</v>
+        <v>-5e-08</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45096.51097072916</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>datum</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>offset</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>slope</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>gewijzigd</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="n">
-        <v>42461.45833333334</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-8.018050339723055e-06</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-3e-08</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>45096.51120732639</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>43169.5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-2.925930033972305e-05</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-3e-08</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>45096.5112075463</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="n">
-        <v>43537</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-1.443971682553291e-05</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-3e-08</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>45096.51120732639</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>44933.5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-1.349998082285456e-05</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-3e-08</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>45096.51120732639</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>datum</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>offset</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>slope</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>gewijzigd</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="n">
-        <v>42396.625</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-2.069105467401738e-05</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-5e-08</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>45096.51134891203</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>42679.5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-4.858977126650135e-16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-5e-08</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>45096.51134891203</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="n">
-        <v>44286</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-2.356263279084974e-05</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-5e-08</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>45096.51134891203</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>44849.5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-4.046402040621742e-05</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-5e-08</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>45096.51134891203</v>
+        <v>45659.67157892361</v>
       </c>
     </row>
   </sheetData>
@@ -2408,7 +2374,7 @@
         <v>-4.99e-10</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45657.53840547454</v>
+        <v>45659.66703420139</v>
       </c>
     </row>
     <row r="3">
@@ -2425,7 +2391,7 @@
         <v>-4.99e-10</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45657.53840547454</v>
+        <v>45659.66703420139</v>
       </c>
     </row>
     <row r="4">
@@ -2442,7 +2408,7 @@
         <v>-4.99e-10</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45657.53840547454</v>
+        <v>45659.66703420139</v>
       </c>
     </row>
   </sheetData>
@@ -2456,7 +2422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2500,7 +2466,7 @@
         <v>-1.32e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45657.53867140046</v>
+        <v>45659.66729121528</v>
       </c>
     </row>
     <row r="3">
@@ -2508,16 +2474,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>41899</v>
+        <v>42987.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-8.890919100585073e-06</v>
+        <v>-1.032773910058507e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-1.32e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45657.53867146991</v>
+        <v>45659.6672912963</v>
       </c>
     </row>
     <row r="4">
@@ -2525,33 +2491,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>42987.5</v>
+        <v>44163.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.032773910058507e-05</v>
+        <v>-7.081335203104816e-06</v>
       </c>
       <c r="D4" t="n">
         <v>-1.32e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45657.53867146991</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>44163.5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-7.081335203104816e-06</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-1.32e-09</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>45657.53867140046</v>
+        <v>45659.66729121528</v>
       </c>
     </row>
   </sheetData>
@@ -2609,7 +2558,7 @@
         <v>-4.76e-10</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45657.53885164352</v>
+        <v>45659.66753715277</v>
       </c>
     </row>
     <row r="3">
@@ -2626,7 +2575,7 @@
         <v>-4.76e-10</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45657.53885164352</v>
+        <v>45659.66753715277</v>
       </c>
     </row>
     <row r="4">
@@ -2643,7 +2592,7 @@
         <v>-4.76e-10</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45657.53885164352</v>
+        <v>45659.66753715277</v>
       </c>
     </row>
     <row r="5">
@@ -2660,7 +2609,7 @@
         <v>-4.76e-10</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45657.53885164352</v>
+        <v>45659.66753715277</v>
       </c>
     </row>
   </sheetData>
@@ -2718,7 +2667,7 @@
         <v>-8.12e-10</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45657.53912391204</v>
+        <v>45659.66789488426</v>
       </c>
     </row>
     <row r="3">
@@ -2735,7 +2684,7 @@
         <v>-8.12e-10</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45657.53912417824</v>
+        <v>45659.66789501157</v>
       </c>
     </row>
     <row r="4">
@@ -2752,7 +2701,7 @@
         <v>-8.12e-10</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45657.53912417824</v>
+        <v>45659.66789501157</v>
       </c>
     </row>
     <row r="5">
@@ -2769,7 +2718,7 @@
         <v>-8.12e-10</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45657.53912391204</v>
+        <v>45659.66789488426</v>
       </c>
     </row>
     <row r="6">
@@ -2786,7 +2735,7 @@
         <v>-8.12e-10</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45657.53912391204</v>
+        <v>45659.66789488426</v>
       </c>
     </row>
   </sheetData>
@@ -2800,7 +2749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2844,7 +2793,7 @@
         <v>-1.5e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45657.53933913194</v>
+        <v>45659.66821138889</v>
       </c>
     </row>
     <row r="3">
@@ -2861,7 +2810,7 @@
         <v>-1.5e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45657.53933918982</v>
+        <v>45659.66821148148</v>
       </c>
     </row>
     <row r="4">
@@ -2878,7 +2827,7 @@
         <v>-1.5e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45657.53933913194</v>
+        <v>45659.66821138889</v>
       </c>
     </row>
     <row r="5">
@@ -2895,7 +2844,24 @@
         <v>-1.5e-09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45657.53933913194</v>
+        <v>45659.66821138889</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>45178.5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2.104199721098186e-05</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-1.5e-09</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>45659.66821148148</v>
       </c>
     </row>
   </sheetData>
@@ -2909,7 +2875,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2947,13 +2913,13 @@
         <v>41030.97916666666</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.141922310494986e-05</v>
+        <v>-9.568329740845948e-06</v>
       </c>
       <c r="D2" t="n">
         <v>-4.7e-10</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45657.53954047454</v>
+        <v>45659.66839146991</v>
       </c>
     </row>
     <row r="3">
@@ -2961,16 +2927,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>41871</v>
+        <v>44237</v>
       </c>
       <c r="C3" t="n">
-        <v>-9.49886197188645e-06</v>
+        <v>-9.601454080008523e-06</v>
       </c>
       <c r="D3" t="n">
         <v>-4.7e-10</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45657.53954047454</v>
+        <v>45659.66839146991</v>
       </c>
     </row>
     <row r="4">
@@ -2978,33 +2944,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>43082</v>
+        <v>45203</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.006803197188645e-05</v>
+        <v>-9.806417430830982e-06</v>
       </c>
       <c r="D4" t="n">
         <v>-4.7e-10</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45657.53954060185</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>44237</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-9.514804369884435e-06</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-4.7e-10</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>45657.53954047454</v>
+        <v>45659.66839146991</v>
       </c>
     </row>
   </sheetData>
@@ -3062,7 +3011,7 @@
         <v>-7.7e-10</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45657.53980603009</v>
+        <v>45659.66869013889</v>
       </c>
     </row>
     <row r="3">
@@ -3079,7 +3028,7 @@
         <v>-7.7e-10</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45657.53980603009</v>
+        <v>45659.66869013889</v>
       </c>
     </row>
     <row r="4">
@@ -3096,7 +3045,7 @@
         <v>-7.7e-10</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45657.53980618055</v>
+        <v>45659.6686902662</v>
       </c>
     </row>
     <row r="5">
@@ -3113,7 +3062,7 @@
         <v>-7.7e-10</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45657.53980603009</v>
+        <v>45659.66869013889</v>
       </c>
     </row>
     <row r="6">
@@ -3130,7 +3079,7 @@
         <v>-7.7e-10</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45657.53980603009</v>
+        <v>45659.66869013889</v>
       </c>
     </row>
   </sheetData>

--- a/productiecapaciteit/results/Leidingweerstand/Leidingweerstand_modelcoefficienten.xlsx
+++ b/productiecapaciteit/results/Leidingweerstand/Leidingweerstand_modelcoefficienten.xlsx
@@ -515,13 +515,13 @@
         <v>42370</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.802055897500434e-05</v>
+        <v>-2.801521281001505e-05</v>
       </c>
       <c r="D2" t="n">
         <v>-2e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45659.67170076677</v>
+        <v>45693.42705162046</v>
       </c>
     </row>
     <row r="3">
@@ -532,13 +532,13 @@
         <v>42770.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-9.425152822870888e-06</v>
+        <v>-9.417955372013845e-06</v>
       </c>
       <c r="D3" t="n">
         <v>-2e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45659.67170076677</v>
+        <v>45693.42705162046</v>
       </c>
     </row>
     <row r="4">
@@ -549,13 +549,13 @@
         <v>43505.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.412515282287089e-05</v>
+        <v>-2.411795537201385e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-2e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45659.67170088244</v>
+        <v>45693.42705183385</v>
       </c>
     </row>
     <row r="5">
@@ -566,13 +566,13 @@
         <v>43866</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.489563420286195e-05</v>
+        <v>-2.489514378977249e-05</v>
       </c>
       <c r="D5" t="n">
         <v>-2e-08</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45659.67170076677</v>
+        <v>45693.42705162046</v>
       </c>
     </row>
     <row r="6">
@@ -583,13 +583,13 @@
         <v>45304.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.984368849977133e-05</v>
+        <v>-2.98447214564138e-05</v>
       </c>
       <c r="D6" t="n">
         <v>-2e-08</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45659.67170076677</v>
+        <v>45693.42705162046</v>
       </c>
     </row>
   </sheetData>
@@ -603,7 +603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -638,16 +638,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>41035.97916666666</v>
+        <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.234132078470805e-05</v>
+        <v>-1.238091056855733e-05</v>
       </c>
       <c r="D2" t="n">
         <v>-1.23e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45659.66915939814</v>
+        <v>45693.42494814815</v>
       </c>
     </row>
     <row r="3">
@@ -658,13 +658,13 @@
         <v>42319</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.391943640970805e-05</v>
+        <v>-1.396638056855733e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-1.23e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45659.66915958333</v>
+        <v>45693.42494839121</v>
       </c>
     </row>
     <row r="4">
@@ -675,13 +675,13 @@
         <v>43057.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.482779140970805e-05</v>
+        <v>-1.487473556855733e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-1.23e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45659.66915958333</v>
+        <v>45693.42494839121</v>
       </c>
     </row>
     <row r="5">
@@ -692,13 +692,13 @@
         <v>43355</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.3339287621341e-05</v>
+        <v>-1.524066056855733e-05</v>
       </c>
       <c r="D5" t="n">
         <v>-1.23e-09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45659.66915939814</v>
+        <v>45693.42494839121</v>
       </c>
     </row>
     <row r="6">
@@ -706,16 +706,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>43719</v>
+        <v>43418</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.35465738874793e-05</v>
+        <v>-1.291896438077007e-05</v>
       </c>
       <c r="D6" t="n">
         <v>-1.23e-09</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45659.66915939814</v>
+        <v>45693.42494814815</v>
       </c>
     </row>
     <row r="7">
@@ -723,16 +723,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>44464.5</v>
+        <v>43719</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.319120417897136e-05</v>
+        <v>-1.328919438077007e-05</v>
       </c>
       <c r="D7" t="n">
         <v>-1.23e-09</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45659.66915939814</v>
+        <v>45693.42494839121</v>
       </c>
     </row>
     <row r="8">
@@ -740,16 +740,33 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>45224</v>
+        <v>44464.5</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.202790652512981e-05</v>
+        <v>-1.324982399105724e-05</v>
       </c>
       <c r="D8" t="n">
         <v>-1.23e-09</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>45659.66915939814</v>
+        <v>45693.42494814815</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>45224</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1.21257814130584e-05</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-1.23e-09</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>45693.42494814815</v>
       </c>
     </row>
   </sheetData>
@@ -801,13 +818,13 @@
         <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.111882445032339e-06</v>
+        <v>-6.119204855739267e-06</v>
       </c>
       <c r="D2" t="n">
         <v>-1.4e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45659.6694109838</v>
+        <v>45693.42515686343</v>
       </c>
     </row>
     <row r="3">
@@ -818,13 +835,13 @@
         <v>42350.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-5.616123389944509e-06</v>
+        <v>-5.618142388860458e-06</v>
       </c>
       <c r="D3" t="n">
         <v>-1.4e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45659.6694109838</v>
+        <v>45693.42515686343</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +852,13 @@
         <v>43428.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.125323389944509e-06</v>
+        <v>-7.127342388860458e-06</v>
       </c>
       <c r="D4" t="n">
         <v>-1.4e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45659.66941107639</v>
+        <v>45693.42515716435</v>
       </c>
     </row>
     <row r="5">
@@ -852,13 +869,13 @@
         <v>43792.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.827565334607773e-06</v>
+        <v>-5.82783900820436e-06</v>
       </c>
       <c r="D5" t="n">
         <v>-1.4e-09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45659.6694109838</v>
+        <v>45693.42515686343</v>
       </c>
     </row>
     <row r="6">
@@ -869,13 +886,13 @@
         <v>44807.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-5.217831045153544e-06</v>
+        <v>-5.23546054289103e-06</v>
       </c>
       <c r="D6" t="n">
         <v>-1.4e-09</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45659.6694109838</v>
+        <v>45693.42515686343</v>
       </c>
     </row>
   </sheetData>
@@ -927,13 +944,13 @@
         <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.018697437020036e-06</v>
+        <v>-6.017393637651924e-06</v>
       </c>
       <c r="D2" t="n">
         <v>-1.37e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45659.66969913195</v>
+        <v>45693.42539233797</v>
       </c>
     </row>
     <row r="3">
@@ -944,13 +961,13 @@
         <v>42049.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-7.415412437020036e-06</v>
+        <v>-7.414108637651924e-06</v>
       </c>
       <c r="D3" t="n">
         <v>-1.37e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45659.66969918981</v>
+        <v>45693.4253924537</v>
       </c>
     </row>
     <row r="4">
@@ -961,13 +978,13 @@
         <v>43446</v>
       </c>
       <c r="C4" t="n">
-        <v>-9.328617437020036e-06</v>
+        <v>-9.327313637651924e-06</v>
       </c>
       <c r="D4" t="n">
         <v>-1.37e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45659.66969918981</v>
+        <v>45693.4253924537</v>
       </c>
     </row>
     <row r="5">
@@ -978,13 +995,13 @@
         <v>43841.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.83149117296834e-06</v>
+        <v>-5.87125006710386e-06</v>
       </c>
       <c r="D5" t="n">
         <v>-1.37e-09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45659.66969913195</v>
+        <v>45693.42539233797</v>
       </c>
     </row>
   </sheetData>
@@ -998,7 +1015,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,16 +1050,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>41030.97916666666</v>
+        <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.942354053685129e-06</v>
+        <v>-7.433263747850981e-06</v>
       </c>
       <c r="D2" t="n">
         <v>-2e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45659.66991203704</v>
+        <v>45693.42553521991</v>
       </c>
     </row>
     <row r="3">
@@ -1050,16 +1067,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>44104</v>
+        <v>43068</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.19676697787385e-05</v>
+        <v>-1.025275467555059e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-2e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45659.66991203704</v>
+        <v>45693.42553521991</v>
       </c>
     </row>
     <row r="4">
@@ -1067,16 +1084,33 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>44895</v>
+        <v>44104</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.016158290300687e-05</v>
+        <v>-1.194909794635769e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-2e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45659.66991203704</v>
+        <v>45693.42553521991</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>44895</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.012788190264657e-05</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-2e-09</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>45693.42553521991</v>
       </c>
     </row>
   </sheetData>
@@ -1090,7 +1124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1128,13 +1162,13 @@
         <v>42371</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.44800091196929e-06</v>
+        <v>-7.444318267670396e-06</v>
       </c>
       <c r="D2" t="n">
         <v>-1.8e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45659.67003353009</v>
+        <v>45693.42563642361</v>
       </c>
     </row>
     <row r="3">
@@ -1145,13 +1179,13 @@
         <v>43085.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.292068811157651e-05</v>
+        <v>-1.853717540821997e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-1.8e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45659.67003353009</v>
+        <v>45693.42563642361</v>
       </c>
     </row>
     <row r="4">
@@ -1159,16 +1193,33 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>45003.5</v>
+        <v>43470.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.439750673109834e-05</v>
+        <v>-1.74784779756162e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-1.8e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45659.67003353009</v>
+        <v>45693.42563642361</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-3.439592055726517e-05</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-1.8e-08</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>45693.42563642361</v>
       </c>
     </row>
   </sheetData>
@@ -1182,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1220,13 +1271,13 @@
         <v>42371</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.7359187296797e-05</v>
+        <v>-2.879108443894151e-05</v>
       </c>
       <c r="D2" t="n">
         <v>-3e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45659.67015773148</v>
+        <v>45693.42575445602</v>
       </c>
     </row>
     <row r="3">
@@ -1234,16 +1285,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>44146</v>
+        <v>43446</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.92374286509668e-05</v>
+        <v>-3.017916227647896e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-3e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45659.67015773148</v>
+        <v>45693.42575445602</v>
       </c>
     </row>
     <row r="4">
@@ -1251,16 +1302,33 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>45346.5</v>
+        <v>44146</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.165884693748427e-05</v>
+        <v>-2.923715936265604e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-3e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45659.67015773148</v>
+        <v>45693.42575445602</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>45346.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-3.166788054425567e-05</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-3e-08</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>45693.42575445602</v>
       </c>
     </row>
   </sheetData>
@@ -1312,13 +1380,13 @@
         <v>42371</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.955490462504115e-06</v>
+        <v>-2.954850676268416e-06</v>
       </c>
       <c r="D2" t="n">
         <v>-2.5e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45659.67029115741</v>
+        <v>45693.42586417824</v>
       </c>
     </row>
     <row r="3">
@@ -1329,13 +1397,13 @@
         <v>43533.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.124221277063376e-05</v>
+        <v>-3.124221653567186e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-2.5e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45659.67029115741</v>
+        <v>45693.42586417824</v>
       </c>
     </row>
     <row r="4">
@@ -1346,13 +1414,13 @@
         <v>43897.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.359771325487263e-06</v>
+        <v>-7.359759328966005e-06</v>
       </c>
       <c r="D4" t="n">
         <v>-2.5e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45659.67029115741</v>
+        <v>45693.42586417824</v>
       </c>
     </row>
     <row r="5">
@@ -1363,13 +1431,13 @@
         <v>44569.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-7.543680798149138e-06</v>
+        <v>-7.543541496129445e-06</v>
       </c>
       <c r="D5" t="n">
         <v>-2.5e-08</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45659.67029115741</v>
+        <v>45693.42586417824</v>
       </c>
     </row>
     <row r="6">
@@ -1380,13 +1448,13 @@
         <v>44912.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-7.156523879810099e-06</v>
+        <v>-7.155182937712057e-06</v>
       </c>
       <c r="D6" t="n">
         <v>-2.5e-08</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45659.67029115741</v>
+        <v>45693.42586417824</v>
       </c>
     </row>
   </sheetData>
@@ -1400,7 +1468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1438,13 +1506,13 @@
         <v>42371</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.573126691463774e-74</v>
+        <v>-8.506048295760821e-06</v>
       </c>
       <c r="D2" t="n">
         <v>-2.8e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45659.6704262037</v>
+        <v>45693.42595226852</v>
       </c>
     </row>
     <row r="3">
@@ -1452,16 +1520,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>44268.5</v>
+        <v>43152</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.012480020329743e-05</v>
+        <v>-7.256720044937124e-06</v>
       </c>
       <c r="D3" t="n">
         <v>-2.8e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45659.6704262037</v>
+        <v>45693.42595226852</v>
       </c>
     </row>
     <row r="4">
@@ -1469,16 +1537,33 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>44611.5</v>
+        <v>44268.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.265094030914668e-05</v>
+        <v>-1.012648800533967e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-2.8e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45659.6704262037</v>
+        <v>45693.42595226852</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>44611.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.265071120144305e-05</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-2.8e-08</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>45693.42595226852</v>
       </c>
     </row>
   </sheetData>
@@ -1530,13 +1615,13 @@
         <v>42371</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.627297775105239e-05</v>
+        <v>-2.627232742458986e-05</v>
       </c>
       <c r="D2" t="n">
         <v>-1.4e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45659.67056368056</v>
+        <v>45693.42605063658</v>
       </c>
     </row>
     <row r="3">
@@ -1547,13 +1632,13 @@
         <v>42812.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.114921410447508e-05</v>
+        <v>-2.114898546343843e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-1.4e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45659.67056368056</v>
+        <v>45693.42605063658</v>
       </c>
     </row>
     <row r="4">
@@ -1564,13 +1649,13 @@
         <v>43477.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.684828686718866e-05</v>
+        <v>-2.684665080964601e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-1.4e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45659.67056368056</v>
+        <v>45693.42605063658</v>
       </c>
     </row>
     <row r="5">
@@ -1581,13 +1666,13 @@
         <v>43803</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.325638778777399e-05</v>
+        <v>-2.325631617934293e-05</v>
       </c>
       <c r="D5" t="n">
         <v>-1.4e-08</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45659.67056368056</v>
+        <v>45693.42605063658</v>
       </c>
     </row>
     <row r="6">
@@ -1598,13 +1683,13 @@
         <v>45325.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.673715848000157e-05</v>
+        <v>-1.673846913200857e-05</v>
       </c>
       <c r="D6" t="n">
         <v>-1.4e-08</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45659.67056368056</v>
+        <v>45693.42605063658</v>
       </c>
     </row>
   </sheetData>
@@ -1656,13 +1741,13 @@
         <v>42461.45833333334</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.410659437512891e-33</v>
+        <v>-4.524183561921517e-23</v>
       </c>
       <c r="D2" t="n">
         <v>-1e-07</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45659.6706671875</v>
+        <v>45693.42614628472</v>
       </c>
     </row>
     <row r="3">
@@ -1673,13 +1758,13 @@
         <v>42637.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-6.607210011947935e-39</v>
+        <v>-8.807805440680059e-21</v>
       </c>
       <c r="D3" t="n">
         <v>-1e-07</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45659.6706671875</v>
+        <v>45693.42614628472</v>
       </c>
     </row>
     <row r="4">
@@ -1690,13 +1775,13 @@
         <v>44170.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.37988660812339e-28</v>
+        <v>-3.236837017821685e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-1e-07</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45659.6706671875</v>
+        <v>45693.42614628472</v>
       </c>
     </row>
   </sheetData>
@@ -1710,7 +1795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1745,16 +1830,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>41030.97916666666</v>
+        <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-9.784134055126342e-06</v>
+        <v>-9.82656184701856e-06</v>
       </c>
       <c r="D2" t="n">
         <v>-1.2e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45659.6668087037</v>
+        <v>45693.42192086806</v>
       </c>
     </row>
     <row r="3">
@@ -1765,13 +1850,13 @@
         <v>43015.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.216555905512634e-05</v>
+        <v>-1.220916184701856e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-1.2e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45659.66680875</v>
+        <v>45693.42192101852</v>
       </c>
     </row>
     <row r="4">
@@ -1779,16 +1864,33 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>44443.5</v>
+        <v>43390</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.146806867770291e-05</v>
+        <v>-1.247325162580846e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-1.2e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45659.6668087037</v>
+        <v>45693.42192086806</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>44443.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.147833470576881e-05</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-1.2e-09</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>45693.42192086806</v>
       </c>
     </row>
   </sheetData>
@@ -1840,13 +1942,13 @@
         <v>42370</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.991236965992761e-06</v>
+        <v>-4.988573764195061e-06</v>
       </c>
       <c r="D2" t="n">
         <v>-1.8e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45659.67113267361</v>
+        <v>45693.42624354167</v>
       </c>
     </row>
     <row r="3">
@@ -1857,13 +1959,13 @@
         <v>43120.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.35510722814229e-05</v>
+        <v>-1.355093335510015e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-1.8e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45659.67113267361</v>
+        <v>45693.42624354167</v>
       </c>
     </row>
     <row r="4">
@@ -1874,13 +1976,13 @@
         <v>44590.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.984537358410121e-05</v>
+        <v>-3.984652529984872e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-1.8e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45659.67113267361</v>
+        <v>45693.42624354167</v>
       </c>
     </row>
     <row r="5">
@@ -1891,13 +1993,13 @@
         <v>45241.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.333469783370846e-05</v>
+        <v>-1.377121133254018e-05</v>
       </c>
       <c r="D5" t="n">
         <v>-1.8e-08</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45659.67113267361</v>
+        <v>45693.42624354167</v>
       </c>
     </row>
   </sheetData>
@@ -1906,98 +2008,6 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>datum</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>offset</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>slope</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>gewijzigd</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="n">
-        <v>42370</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-2.958911472058064e-14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-2e-08</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>45659.67126690973</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>44044.5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-1.907178119902214e-05</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-2e-08</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>45659.67126690973</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="n">
-        <v>44520.5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-8.532057661503684e-06</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-2e-08</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>45659.67126690973</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2041,13 +2051,13 @@
         <v>42370</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.229835150535184e-05</v>
+        <v>-4.298825263138393e-06</v>
       </c>
       <c r="D2" t="n">
-        <v>-5e-09</v>
+        <v>-2e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45659.67136357639</v>
+        <v>45693.42637120371</v>
       </c>
     </row>
     <row r="3">
@@ -2055,16 +2065,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>43141.5</v>
+        <v>43173</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.519635139879152e-05</v>
+        <v>-4.921269206285521e-06</v>
       </c>
       <c r="D3" t="n">
-        <v>-5e-09</v>
+        <v>-2e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45659.67136357639</v>
+        <v>45693.42637120371</v>
       </c>
     </row>
     <row r="4">
@@ -2072,16 +2082,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>44202</v>
+        <v>44044.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.651312656570703e-05</v>
+        <v>-1.907177832464719e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>-5e-09</v>
+        <v>-2e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45659.67136357639</v>
+        <v>45693.42637120371</v>
       </c>
     </row>
     <row r="5">
@@ -2089,16 +2099,159 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>44258</v>
+        <v>44520.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.679312656570703e-05</v>
+        <v>-8.530796433498444e-06</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-2e-08</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>45693.42637120371</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>datum</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>offset</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>slope</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>gewijzigd</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>42370</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-4.498825050988893e-05</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-5e-09</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>45693.42662696759</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>43141.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-4.884575050988893e-05</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-5e-09</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>45693.42662719907</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>43509</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2.393411473874592e-05</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-5e-09</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>45693.42662696759</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>44202</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-2.651532411818182e-05</v>
       </c>
       <c r="D5" t="n">
         <v>-5e-09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45659.67136365741</v>
+        <v>45693.42662696759</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>44258</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2.679532411818182e-05</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-5e-09</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>45693.42662719907</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>44545</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-2.823032411818182e-05</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-5e-09</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>45693.42662719907</v>
       </c>
     </row>
   </sheetData>
@@ -2112,7 +2265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2150,13 +2303,13 @@
         <v>42461.45833333334</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.250806170131382e-06</v>
+        <v>-7.646622156533887e-06</v>
       </c>
       <c r="D2" t="n">
         <v>-3e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45659.67148185185</v>
+        <v>45693.42676871528</v>
       </c>
     </row>
     <row r="3">
@@ -2167,13 +2320,13 @@
         <v>43169.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-5.215249744043546e-06</v>
+        <v>-2.888787215653388e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-3e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45659.67148185185</v>
+        <v>45693.42676886574</v>
       </c>
     </row>
     <row r="4">
@@ -2181,16 +2334,33 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>44933.5</v>
+        <v>43537</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.630546383099005e-05</v>
+        <v>-1.59363958057981e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-3e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45659.67148185185</v>
+        <v>45693.42676871528</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>44933.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-2.630435566884168e-05</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-3e-08</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>45693.42676871528</v>
       </c>
     </row>
   </sheetData>
@@ -2199,6 +2369,149 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>datum</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>offset</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>slope</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>gewijzigd</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>42396.625</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.221087956087026e-05</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-3e-08</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>45693.42689134259</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>42679.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.439988458348033e-05</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-3e-08</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>45693.42689134259</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>43047</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.363256197352248e-05</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-3e-08</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>45693.42689134259</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>44286</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-2.485123654570475e-05</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-3e-08</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>45693.42689134259</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>44849.5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2.587675770900705e-05</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-3e-08</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>45693.42689134259</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>45269.5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-2.162300811365992e-05</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-3e-08</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>45693.42689134259</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2239,16 +2552,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>42396.625</v>
+        <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-8.28407018000315e-06</v>
+        <v>-1.66114419540266e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>-5e-08</v>
+        <v>-2e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45659.67157892361</v>
+        <v>45693.42216070602</v>
       </c>
     </row>
     <row r="3">
@@ -2256,16 +2569,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>42679.5</v>
+        <v>41640</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.047022210952271e-14</v>
+        <v>-1.284468391658289e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>-5e-08</v>
+        <v>-2e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45659.67157892361</v>
+        <v>45693.42216070602</v>
       </c>
     </row>
     <row r="4">
@@ -2273,16 +2586,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>44286</v>
+        <v>42707.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.755165713009394e-05</v>
+        <v>-1.497968391658289e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>-5e-08</v>
+        <v>-2e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45659.67157892361</v>
+        <v>45693.42216094907</v>
       </c>
     </row>
     <row r="5">
@@ -2290,16 +2603,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>44849.5</v>
+        <v>43026</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.107724943352393e-05</v>
+        <v>-1.478880083760723e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>-5e-08</v>
+        <v>-2e-09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45659.67157892361</v>
+        <v>45693.42216070602</v>
       </c>
     </row>
     <row r="6">
@@ -2307,108 +2620,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>45269.5</v>
+        <v>44128.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.872377188299808e-05</v>
+        <v>-1.446163035416667e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>-5e-08</v>
+        <v>-2e-09</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45659.67157892361</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>datum</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>offset</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>slope</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>gewijzigd</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="n">
-        <v>41030</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-1.482359601319953e-05</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-4.99e-10</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>45659.66703420139</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>42707.5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-1.548383080773783e-05</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-4.99e-10</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>45659.66703420139</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="n">
-        <v>44128.5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-1.546812433875638e-05</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-4.99e-10</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>45659.66703420139</v>
+        <v>45693.42216070602</v>
       </c>
     </row>
   </sheetData>
@@ -2422,7 +2643,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2460,13 +2681,13 @@
         <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.743839100585073e-06</v>
+        <v>-8.009535260742326e-06</v>
       </c>
       <c r="D2" t="n">
         <v>-1.32e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45659.66729121528</v>
+        <v>45693.42243967592</v>
       </c>
     </row>
     <row r="3">
@@ -2474,16 +2695,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>42987.5</v>
+        <v>41941</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.032773910058507e-05</v>
+        <v>-9.212055260742326e-06</v>
       </c>
       <c r="D3" t="n">
         <v>-1.32e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45659.6672912963</v>
+        <v>45693.42243998843</v>
       </c>
     </row>
     <row r="4">
@@ -2491,16 +2712,50 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>44163.5</v>
+        <v>42987.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.081335203104816e-06</v>
+        <v>-1.059343526074233e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-1.32e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45659.66729121528</v>
+        <v>45693.42243998843</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>43355</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-8.764960811715929e-06</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-1.32e-09</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>45693.42243967592</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>44163.5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-7.079476700873556e-06</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-1.32e-09</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>45693.42243967592</v>
       </c>
     </row>
   </sheetData>
@@ -2514,7 +2769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2552,13 +2807,13 @@
         <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-9.253206191052623e-06</v>
+        <v>-1.208654861614519e-05</v>
       </c>
       <c r="D2" t="n">
         <v>-4.76e-10</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45659.66753715277</v>
+        <v>45693.42263416667</v>
       </c>
     </row>
     <row r="3">
@@ -2566,16 +2821,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>42795</v>
+        <v>41794</v>
       </c>
       <c r="C3" t="n">
-        <v>-9.384863941728345e-06</v>
+        <v>-8.797444772336551e-06</v>
       </c>
       <c r="D3" t="n">
         <v>-4.76e-10</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45659.66753715277</v>
+        <v>45693.42263416667</v>
       </c>
     </row>
     <row r="4">
@@ -2583,16 +2838,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>44079.5</v>
+        <v>42795</v>
       </c>
       <c r="C4" t="n">
-        <v>-8.864197589164204e-06</v>
+        <v>-9.273920772336551e-06</v>
       </c>
       <c r="D4" t="n">
         <v>-4.76e-10</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45659.66753715277</v>
+        <v>45693.42263444445</v>
       </c>
     </row>
     <row r="5">
@@ -2600,16 +2855,33 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>44975.5</v>
+        <v>44079.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-8.253573208534444e-06</v>
+        <v>-8.864256280629331e-06</v>
       </c>
       <c r="D5" t="n">
         <v>-4.76e-10</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45659.66753715277</v>
+        <v>45693.42263416667</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>44975.5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-8.26026077587623e-06</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-4.76e-10</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>45693.42263416667</v>
       </c>
     </row>
   </sheetData>
@@ -2661,13 +2933,13 @@
         <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.567735900203139e-05</v>
+        <v>-1.568106527749864e-05</v>
       </c>
       <c r="D2" t="n">
         <v>-8.12e-10</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45659.66789488426</v>
+        <v>45693.42288696759</v>
       </c>
     </row>
     <row r="3">
@@ -2678,13 +2950,13 @@
         <v>42301.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.670981700203139e-05</v>
+        <v>-1.671352327749864e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-8.12e-10</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45659.66789501157</v>
+        <v>45693.42288716435</v>
       </c>
     </row>
     <row r="4">
@@ -2695,13 +2967,13 @@
         <v>43386.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.759083700203139e-05</v>
+        <v>-1.759454327749864e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-8.12e-10</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45659.66789501157</v>
+        <v>45693.42288716435</v>
       </c>
     </row>
     <row r="5">
@@ -2712,13 +2984,13 @@
         <v>43750.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.575197772123149e-05</v>
+        <v>-1.576013026415463e-05</v>
       </c>
       <c r="D5" t="n">
         <v>-8.12e-10</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45659.66789488426</v>
+        <v>45693.42288696759</v>
       </c>
     </row>
     <row r="6">
@@ -2729,13 +3001,13 @@
         <v>44954.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-8.814434289001204e-06</v>
+        <v>-8.82435553633218e-06</v>
       </c>
       <c r="D6" t="n">
         <v>-8.12e-10</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45659.66789488426</v>
+        <v>45693.42288696759</v>
       </c>
     </row>
   </sheetData>
@@ -2787,13 +3059,13 @@
         <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.735425541454964e-05</v>
+        <v>-1.736512120756952e-05</v>
       </c>
       <c r="D2" t="n">
         <v>-1.5e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45659.66821138889</v>
+        <v>45693.42318304398</v>
       </c>
     </row>
     <row r="3">
@@ -2804,13 +3076,13 @@
         <v>42249</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.918275541454964e-05</v>
+        <v>-1.919362120756952e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-1.5e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45659.66821148148</v>
+        <v>45693.42318326389</v>
       </c>
     </row>
     <row r="4">
@@ -2821,13 +3093,13 @@
         <v>43040</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.934179400942103e-05</v>
+        <v>-1.93459375261922e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-1.5e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45659.66821138889</v>
+        <v>45693.42318304398</v>
       </c>
     </row>
     <row r="5">
@@ -2838,13 +3110,13 @@
         <v>44499.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.002349721098186e-05</v>
+        <v>-2.004433763426037e-05</v>
       </c>
       <c r="D5" t="n">
         <v>-1.5e-09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45659.66821138889</v>
+        <v>45693.42318304398</v>
       </c>
     </row>
     <row r="6">
@@ -2855,13 +3127,13 @@
         <v>45178.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.104199721098186e-05</v>
+        <v>-2.106283763426037e-05</v>
       </c>
       <c r="D6" t="n">
         <v>-1.5e-09</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45659.66821148148</v>
+        <v>45693.42318326389</v>
       </c>
     </row>
   </sheetData>
@@ -2910,16 +3182,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>41030.97916666666</v>
+        <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-9.568329740845948e-06</v>
+        <v>-9.589542806634301e-06</v>
       </c>
       <c r="D2" t="n">
         <v>-4.7e-10</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45659.66839146991</v>
+        <v>45693.42329850695</v>
       </c>
     </row>
     <row r="3">
@@ -2930,13 +3202,13 @@
         <v>44237</v>
       </c>
       <c r="C3" t="n">
-        <v>-9.601454080008523e-06</v>
+        <v>-9.617430830151785e-06</v>
       </c>
       <c r="D3" t="n">
         <v>-4.7e-10</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45659.66839146991</v>
+        <v>45693.42329850695</v>
       </c>
     </row>
     <row r="4">
@@ -2947,13 +3219,13 @@
         <v>45203</v>
       </c>
       <c r="C4" t="n">
-        <v>-9.806417430830982e-06</v>
+        <v>-9.812269772089445e-06</v>
       </c>
       <c r="D4" t="n">
         <v>-4.7e-10</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45659.66839146991</v>
+        <v>45693.42329850695</v>
       </c>
     </row>
   </sheetData>
@@ -2967,7 +3239,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3005,13 +3277,13 @@
         <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.230349195937308e-05</v>
+        <v>-1.290816691273146e-05</v>
       </c>
       <c r="D2" t="n">
         <v>-7.7e-10</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45659.66869013889</v>
+        <v>45693.42352934027</v>
       </c>
     </row>
     <row r="3">
@@ -3019,16 +3291,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>42655</v>
+        <v>41367</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.188855053699145e-05</v>
+        <v>-1.251746553466974e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-7.7e-10</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45659.66869013889</v>
+        <v>45693.42352934027</v>
       </c>
     </row>
     <row r="4">
@@ -3036,16 +3308,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>43407.5</v>
+        <v>42655</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.246797553699145e-05</v>
+        <v>-1.189272787390153e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-7.7e-10</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45659.6686902662</v>
+        <v>45693.42352934027</v>
       </c>
     </row>
     <row r="5">
@@ -3053,16 +3325,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>43771.5</v>
+        <v>43407.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.179156717366791e-05</v>
+        <v>-1.247215287390153e-05</v>
       </c>
       <c r="D5" t="n">
         <v>-7.7e-10</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45659.66869013889</v>
+        <v>45693.42352965278</v>
       </c>
     </row>
     <row r="6">
@@ -3070,16 +3342,33 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>44541.5</v>
+        <v>43771.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.098257305276865e-05</v>
+        <v>-1.180429018083143e-05</v>
       </c>
       <c r="D6" t="n">
         <v>-7.7e-10</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45659.66869013889</v>
+        <v>45693.42352934027</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>44541.5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.098499137406224e-05</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-7.7e-10</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>45693.42352934027</v>
       </c>
     </row>
   </sheetData>

--- a/productiecapaciteit/results/Leidingweerstand/Leidingweerstand_modelcoefficienten.xlsx
+++ b/productiecapaciteit/results/Leidingweerstand/Leidingweerstand_modelcoefficienten.xlsx
@@ -521,7 +521,7 @@
         <v>-2e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45693.42705162046</v>
+        <v>45699.43251926496</v>
       </c>
     </row>
     <row r="3">
@@ -538,7 +538,7 @@
         <v>-2e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45693.42705162046</v>
+        <v>45699.43251926496</v>
       </c>
     </row>
     <row r="4">
@@ -555,7 +555,7 @@
         <v>-2e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45693.42705183385</v>
+        <v>45699.43251943853</v>
       </c>
     </row>
     <row r="5">
@@ -572,7 +572,7 @@
         <v>-2e-08</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45693.42705162046</v>
+        <v>45699.43251926496</v>
       </c>
     </row>
     <row r="6">
@@ -589,7 +589,7 @@
         <v>-2e-08</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45693.42705162046</v>
+        <v>45699.43251926496</v>
       </c>
     </row>
   </sheetData>
@@ -641,13 +641,13 @@
         <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.238091056855733e-05</v>
+        <v>-1.221324539105585e-05</v>
       </c>
       <c r="D2" t="n">
         <v>-1.23e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45693.42494814815</v>
+        <v>45699.43113275463</v>
       </c>
     </row>
     <row r="3">
@@ -658,13 +658,13 @@
         <v>42319</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.396638056855733e-05</v>
+        <v>-1.379871539105585e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-1.23e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45693.42494839121</v>
+        <v>45699.43113288195</v>
       </c>
     </row>
     <row r="4">
@@ -675,13 +675,13 @@
         <v>43057.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.487473556855733e-05</v>
+        <v>-1.470707039105585e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-1.23e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45693.42494839121</v>
+        <v>45699.43113288195</v>
       </c>
     </row>
     <row r="5">
@@ -692,13 +692,13 @@
         <v>43355</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.524066056855733e-05</v>
+        <v>-1.507299539105585e-05</v>
       </c>
       <c r="D5" t="n">
         <v>-1.23e-09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45693.42494839121</v>
+        <v>45699.43113288195</v>
       </c>
     </row>
     <row r="6">
@@ -709,13 +709,13 @@
         <v>43418</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.291896438077007e-05</v>
+        <v>-1.266712723704561e-05</v>
       </c>
       <c r="D6" t="n">
         <v>-1.23e-09</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45693.42494814815</v>
+        <v>45699.43113275463</v>
       </c>
     </row>
     <row r="7">
@@ -726,13 +726,13 @@
         <v>43719</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.328919438077007e-05</v>
+        <v>-1.303735723704561e-05</v>
       </c>
       <c r="D7" t="n">
         <v>-1.23e-09</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45693.42494839121</v>
+        <v>45699.43113288195</v>
       </c>
     </row>
     <row r="8">
@@ -743,13 +743,13 @@
         <v>44464.5</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.324982399105724e-05</v>
+        <v>-1.297767193405733e-05</v>
       </c>
       <c r="D8" t="n">
         <v>-1.23e-09</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>45693.42494814815</v>
+        <v>45699.43113275463</v>
       </c>
     </row>
     <row r="9">
@@ -760,13 +760,13 @@
         <v>45224</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.21257814130584e-05</v>
+        <v>-1.187982916669219e-05</v>
       </c>
       <c r="D9" t="n">
         <v>-1.23e-09</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>45693.42494814815</v>
+        <v>45699.43113275463</v>
       </c>
     </row>
   </sheetData>
@@ -818,13 +818,13 @@
         <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.119204855739267e-06</v>
+        <v>-4.872309283647548e-06</v>
       </c>
       <c r="D2" t="n">
         <v>-1.4e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45693.42515686343</v>
+        <v>45699.43130829861</v>
       </c>
     </row>
     <row r="3">
@@ -835,13 +835,13 @@
         <v>42350.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-5.618142388860458e-06</v>
+        <v>-4.156400780547415e-06</v>
       </c>
       <c r="D3" t="n">
         <v>-1.4e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45693.42515686343</v>
+        <v>45699.43130829861</v>
       </c>
     </row>
     <row r="4">
@@ -852,13 +852,13 @@
         <v>43428.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.127342388860458e-06</v>
+        <v>-5.665600780547415e-06</v>
       </c>
       <c r="D4" t="n">
         <v>-1.4e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45693.42515716435</v>
+        <v>45699.43130847222</v>
       </c>
     </row>
     <row r="5">
@@ -869,13 +869,13 @@
         <v>43792.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.82783900820436e-06</v>
+        <v>-4.568058226027852e-06</v>
       </c>
       <c r="D5" t="n">
         <v>-1.4e-09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45693.42515686343</v>
+        <v>45699.43130829861</v>
       </c>
     </row>
     <row r="6">
@@ -886,13 +886,13 @@
         <v>44807.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-5.23546054289103e-06</v>
+        <v>-3.896168531125502e-06</v>
       </c>
       <c r="D6" t="n">
         <v>-1.4e-09</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45693.42515686343</v>
+        <v>45699.43130829861</v>
       </c>
     </row>
   </sheetData>
@@ -944,13 +944,13 @@
         <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.017393637651924e-06</v>
+        <v>-8.116782944590257e-06</v>
       </c>
       <c r="D2" t="n">
         <v>-1.37e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45693.42539233797</v>
+        <v>45699.43149399306</v>
       </c>
     </row>
     <row r="3">
@@ -961,13 +961,13 @@
         <v>42049.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-7.414108637651924e-06</v>
+        <v>-9.513497944590258e-06</v>
       </c>
       <c r="D3" t="n">
         <v>-1.37e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45693.4253924537</v>
+        <v>45699.43149405093</v>
       </c>
     </row>
     <row r="4">
@@ -978,13 +978,13 @@
         <v>43446</v>
       </c>
       <c r="C4" t="n">
-        <v>-9.327313637651924e-06</v>
+        <v>-1.142670294459026e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-1.37e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45693.4253924537</v>
+        <v>45699.43149405093</v>
       </c>
     </row>
     <row r="5">
@@ -995,13 +995,13 @@
         <v>43841.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.87125006710386e-06</v>
+        <v>-8.229782176666178e-06</v>
       </c>
       <c r="D5" t="n">
         <v>-1.37e-09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45693.42539233797</v>
+        <v>45699.43149399306</v>
       </c>
     </row>
   </sheetData>
@@ -1053,13 +1053,13 @@
         <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.433263747850981e-06</v>
+        <v>-8.259252009415245e-06</v>
       </c>
       <c r="D2" t="n">
         <v>-2e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45693.42553521991</v>
+        <v>45699.43161613426</v>
       </c>
     </row>
     <row r="3">
@@ -1070,13 +1070,13 @@
         <v>43068</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.025275467555059e-05</v>
+        <v>-1.141779515795446e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-2e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45693.42553521991</v>
+        <v>45699.43161613426</v>
       </c>
     </row>
     <row r="4">
@@ -1087,13 +1087,13 @@
         <v>44104</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.194909794635769e-05</v>
+        <v>-1.336274291691822e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-2e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45693.42553521991</v>
+        <v>45699.43161613426</v>
       </c>
     </row>
     <row r="5">
@@ -1104,13 +1104,13 @@
         <v>44895</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.012788190264657e-05</v>
+        <v>-1.123170811703284e-05</v>
       </c>
       <c r="D5" t="n">
         <v>-2e-09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45693.42553521991</v>
+        <v>45699.43161613426</v>
       </c>
     </row>
   </sheetData>
@@ -1168,7 +1168,7 @@
         <v>-1.8e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45693.42563642361</v>
+        <v>45699.43168528935</v>
       </c>
     </row>
     <row r="3">
@@ -1185,7 +1185,7 @@
         <v>-1.8e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45693.42563642361</v>
+        <v>45699.43168528935</v>
       </c>
     </row>
     <row r="4">
@@ -1202,7 +1202,7 @@
         <v>-1.8e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45693.42563642361</v>
+        <v>45699.43168528935</v>
       </c>
     </row>
     <row r="5">
@@ -1219,7 +1219,7 @@
         <v>-1.8e-08</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45693.42563642361</v>
+        <v>45699.43168528935</v>
       </c>
     </row>
   </sheetData>
@@ -1277,7 +1277,7 @@
         <v>-3e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45693.42575445602</v>
+        <v>45699.43174952547</v>
       </c>
     </row>
     <row r="3">
@@ -1294,7 +1294,7 @@
         <v>-3e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45693.42575445602</v>
+        <v>45699.43174952547</v>
       </c>
     </row>
     <row r="4">
@@ -1311,7 +1311,7 @@
         <v>-3e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45693.42575445602</v>
+        <v>45699.43174952547</v>
       </c>
     </row>
     <row r="5">
@@ -1328,7 +1328,7 @@
         <v>-3e-08</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45693.42575445602</v>
+        <v>45699.43174952547</v>
       </c>
     </row>
   </sheetData>
@@ -1380,13 +1380,13 @@
         <v>42371</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.954850676268416e-06</v>
+        <v>-4.618037803610032e-06</v>
       </c>
       <c r="D2" t="n">
         <v>-2.5e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45693.42586417824</v>
+        <v>45699.43181354167</v>
       </c>
     </row>
     <row r="3">
@@ -1397,13 +1397,13 @@
         <v>43533.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.124221653567186e-05</v>
+        <v>-3.295375806206255e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-2.5e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45693.42586417824</v>
+        <v>45699.43181354167</v>
       </c>
     </row>
     <row r="4">
@@ -1414,13 +1414,13 @@
         <v>43897.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.359759328966005e-06</v>
+        <v>-8.884070366833857e-06</v>
       </c>
       <c r="D4" t="n">
         <v>-2.5e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45693.42586417824</v>
+        <v>45699.43181354167</v>
       </c>
     </row>
     <row r="5">
@@ -1431,13 +1431,13 @@
         <v>44569.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-7.543541496129445e-06</v>
+        <v>-9.004647745344225e-06</v>
       </c>
       <c r="D5" t="n">
         <v>-2.5e-08</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45693.42586417824</v>
+        <v>45699.43181354167</v>
       </c>
     </row>
     <row r="6">
@@ -1448,13 +1448,13 @@
         <v>44912.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-7.155182937712057e-06</v>
+        <v>-8.861420220038791e-06</v>
       </c>
       <c r="D6" t="n">
         <v>-2.5e-08</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45693.42586417824</v>
+        <v>45699.43181354167</v>
       </c>
     </row>
   </sheetData>
@@ -1512,7 +1512,7 @@
         <v>-2.8e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45693.42595226852</v>
+        <v>45699.43187165509</v>
       </c>
     </row>
     <row r="3">
@@ -1529,7 +1529,7 @@
         <v>-2.8e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45693.42595226852</v>
+        <v>45699.43187165509</v>
       </c>
     </row>
     <row r="4">
@@ -1546,7 +1546,7 @@
         <v>-2.8e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45693.42595226852</v>
+        <v>45699.43187165509</v>
       </c>
     </row>
     <row r="5">
@@ -1563,7 +1563,7 @@
         <v>-2.8e-08</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45693.42595226852</v>
+        <v>45699.43187165509</v>
       </c>
     </row>
   </sheetData>
@@ -1615,13 +1615,13 @@
         <v>42371</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.627232742458986e-05</v>
+        <v>-1.073793294475766e-05</v>
       </c>
       <c r="D2" t="n">
         <v>-1.4e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45693.42605063658</v>
+        <v>45699.43192857639</v>
       </c>
     </row>
     <row r="3">
@@ -1632,13 +1632,13 @@
         <v>42812.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.114898546343843e-05</v>
+        <v>-8.874197228997538e-06</v>
       </c>
       <c r="D3" t="n">
         <v>-1.4e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45693.42605063658</v>
+        <v>45699.43192857639</v>
       </c>
     </row>
     <row r="4">
@@ -1649,13 +1649,13 @@
         <v>43477.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.684665080964601e-05</v>
+        <v>-1.358832151727803e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-1.4e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45693.42605063658</v>
+        <v>45699.43192857639</v>
       </c>
     </row>
     <row r="5">
@@ -1666,13 +1666,13 @@
         <v>43803</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.325631617934293e-05</v>
+        <v>-5.911167995260177e-06</v>
       </c>
       <c r="D5" t="n">
         <v>-1.4e-08</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45693.42605063658</v>
+        <v>45699.43192857639</v>
       </c>
     </row>
     <row r="6">
@@ -1683,13 +1683,13 @@
         <v>45325.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.673846913200857e-05</v>
+        <v>-2.473713047701173e-10</v>
       </c>
       <c r="D6" t="n">
         <v>-1.4e-08</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45693.42605063658</v>
+        <v>45699.43192857639</v>
       </c>
     </row>
   </sheetData>
@@ -1747,7 +1747,7 @@
         <v>-1e-07</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45693.42614628472</v>
+        <v>45699.43198909723</v>
       </c>
     </row>
     <row r="3">
@@ -1764,7 +1764,7 @@
         <v>-1e-07</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45693.42614628472</v>
+        <v>45699.43198909723</v>
       </c>
     </row>
     <row r="4">
@@ -1781,7 +1781,7 @@
         <v>-1e-07</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45693.42614628472</v>
+        <v>45699.43198909723</v>
       </c>
     </row>
   </sheetData>
@@ -1833,13 +1833,13 @@
         <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-9.82656184701856e-06</v>
+        <v>-8.653514780392828e-06</v>
       </c>
       <c r="D2" t="n">
         <v>-1.2e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45693.42192086806</v>
+        <v>45699.42913420139</v>
       </c>
     </row>
     <row r="3">
@@ -1850,13 +1850,13 @@
         <v>43015.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.220916184701856e-05</v>
+        <v>-1.103611478039283e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-1.2e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45693.42192101852</v>
+        <v>45699.42913428241</v>
       </c>
     </row>
     <row r="4">
@@ -1867,13 +1867,13 @@
         <v>43390</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.247325162580846e-05</v>
+        <v>-1.084727434972205e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-1.2e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45693.42192086806</v>
+        <v>45699.42913420139</v>
       </c>
     </row>
     <row r="5">
@@ -1884,13 +1884,13 @@
         <v>44443.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.147833470576881e-05</v>
+        <v>-9.957755712075037e-06</v>
       </c>
       <c r="D5" t="n">
         <v>-1.2e-09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45693.42192086806</v>
+        <v>45699.42913420139</v>
       </c>
     </row>
   </sheetData>
@@ -1948,7 +1948,7 @@
         <v>-1.8e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45693.42624354167</v>
+        <v>45699.43204844907</v>
       </c>
     </row>
     <row r="3">
@@ -1965,7 +1965,7 @@
         <v>-1.8e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45693.42624354167</v>
+        <v>45699.43204844907</v>
       </c>
     </row>
     <row r="4">
@@ -1982,7 +1982,7 @@
         <v>-1.8e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45693.42624354167</v>
+        <v>45699.43204844907</v>
       </c>
     </row>
     <row r="5">
@@ -1999,7 +1999,7 @@
         <v>-1.8e-08</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45693.42624354167</v>
+        <v>45699.43204844907</v>
       </c>
     </row>
   </sheetData>
@@ -2057,7 +2057,7 @@
         <v>-2e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45693.42637120371</v>
+        <v>45699.43212153935</v>
       </c>
     </row>
     <row r="3">
@@ -2074,7 +2074,7 @@
         <v>-2e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45693.42637120371</v>
+        <v>45699.43212153935</v>
       </c>
     </row>
     <row r="4">
@@ -2091,7 +2091,7 @@
         <v>-2e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45693.42637120371</v>
+        <v>45699.43212153935</v>
       </c>
     </row>
     <row r="5">
@@ -2108,7 +2108,7 @@
         <v>-2e-08</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45693.42637120371</v>
+        <v>45699.43212153935</v>
       </c>
     </row>
   </sheetData>
@@ -2160,13 +2160,13 @@
         <v>42370</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.498825050988893e-05</v>
+        <v>-5.912817899241044e-05</v>
       </c>
       <c r="D2" t="n">
         <v>-5e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45693.42662696759</v>
+        <v>45699.43227958334</v>
       </c>
     </row>
     <row r="3">
@@ -2177,13 +2177,13 @@
         <v>43141.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.884575050988893e-05</v>
+        <v>-6.298567899241044e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-5e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45693.42662719907</v>
+        <v>45699.43227981481</v>
       </c>
     </row>
     <row r="4">
@@ -2194,13 +2194,13 @@
         <v>43509</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.393411473874592e-05</v>
+        <v>-3.687596402640867e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-5e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45693.42662696759</v>
+        <v>45699.43227958334</v>
       </c>
     </row>
     <row r="5">
@@ -2211,13 +2211,13 @@
         <v>44202</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.651532411818182e-05</v>
+        <v>-3.986077322560307e-05</v>
       </c>
       <c r="D5" t="n">
         <v>-5e-09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45693.42662696759</v>
+        <v>45699.43227958334</v>
       </c>
     </row>
     <row r="6">
@@ -2228,13 +2228,13 @@
         <v>44258</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.679532411818182e-05</v>
+        <v>-4.014077322560307e-05</v>
       </c>
       <c r="D6" t="n">
         <v>-5e-09</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45693.42662719907</v>
+        <v>45699.43227981481</v>
       </c>
     </row>
     <row r="7">
@@ -2245,13 +2245,13 @@
         <v>44545</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.823032411818182e-05</v>
+        <v>-4.157577322560307e-05</v>
       </c>
       <c r="D7" t="n">
         <v>-5e-09</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45693.42662719907</v>
+        <v>45699.43227981481</v>
       </c>
     </row>
   </sheetData>
@@ -2309,7 +2309,7 @@
         <v>-3e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45693.42676871528</v>
+        <v>45699.4323562963</v>
       </c>
     </row>
     <row r="3">
@@ -2326,7 +2326,7 @@
         <v>-3e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45693.42676886574</v>
+        <v>45699.43235642361</v>
       </c>
     </row>
     <row r="4">
@@ -2343,7 +2343,7 @@
         <v>-3e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45693.42676871528</v>
+        <v>45699.4323562963</v>
       </c>
     </row>
     <row r="5">
@@ -2360,7 +2360,7 @@
         <v>-3e-08</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45693.42676871528</v>
+        <v>45699.4323562963</v>
       </c>
     </row>
   </sheetData>
@@ -2418,7 +2418,7 @@
         <v>-3e-08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45693.42689134259</v>
+        <v>45699.43242716435</v>
       </c>
     </row>
     <row r="3">
@@ -2435,7 +2435,7 @@
         <v>-3e-08</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45693.42689134259</v>
+        <v>45699.43242716435</v>
       </c>
     </row>
     <row r="4">
@@ -2452,7 +2452,7 @@
         <v>-3e-08</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45693.42689134259</v>
+        <v>45699.43242716435</v>
       </c>
     </row>
     <row r="5">
@@ -2469,7 +2469,7 @@
         <v>-3e-08</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45693.42689134259</v>
+        <v>45699.43242716435</v>
       </c>
     </row>
     <row r="6">
@@ -2486,7 +2486,7 @@
         <v>-3e-08</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45693.42689134259</v>
+        <v>45699.43242716435</v>
       </c>
     </row>
     <row r="7">
@@ -2503,7 +2503,7 @@
         <v>-3e-08</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45693.42689134259</v>
+        <v>45699.43242716435</v>
       </c>
     </row>
   </sheetData>
@@ -2555,13 +2555,13 @@
         <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.66114419540266e-05</v>
+        <v>-1.751724226878591e-05</v>
       </c>
       <c r="D2" t="n">
         <v>-2e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45693.42216070602</v>
+        <v>45699.42933704861</v>
       </c>
     </row>
     <row r="3">
@@ -2572,13 +2572,13 @@
         <v>41640</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.284468391658289e-05</v>
+        <v>-1.393040611681313e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-2e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45693.42216070602</v>
+        <v>45699.42933704861</v>
       </c>
     </row>
     <row r="4">
@@ -2589,13 +2589,13 @@
         <v>42707.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.497968391658289e-05</v>
+        <v>-1.606540611681313e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-2e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45693.42216094907</v>
+        <v>45699.42933716435</v>
       </c>
     </row>
     <row r="5">
@@ -2606,13 +2606,13 @@
         <v>43026</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.478880083760723e-05</v>
+        <v>-1.615628266504805e-05</v>
       </c>
       <c r="D5" t="n">
         <v>-2e-09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45693.42216070602</v>
+        <v>45699.42933704861</v>
       </c>
     </row>
     <row r="6">
@@ -2623,13 +2623,13 @@
         <v>44128.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.446163035416667e-05</v>
+        <v>-1.583021587928638e-05</v>
       </c>
       <c r="D6" t="n">
         <v>-2e-09</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45693.42216070602</v>
+        <v>45699.42933704861</v>
       </c>
     </row>
   </sheetData>
@@ -2681,13 +2681,13 @@
         <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-8.009535260742326e-06</v>
+        <v>-1.094509649985323e-05</v>
       </c>
       <c r="D2" t="n">
         <v>-1.32e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45693.42243967592</v>
+        <v>45699.42953510417</v>
       </c>
     </row>
     <row r="3">
@@ -2698,13 +2698,13 @@
         <v>41941</v>
       </c>
       <c r="C3" t="n">
-        <v>-9.212055260742326e-06</v>
+        <v>-1.214761649985323e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-1.32e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45693.42243998843</v>
+        <v>45699.42953517361</v>
       </c>
     </row>
     <row r="4">
@@ -2715,13 +2715,13 @@
         <v>42987.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.059343526074233e-05</v>
+        <v>-1.352899649985323e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-1.32e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45693.42243998843</v>
+        <v>45699.42953517361</v>
       </c>
     </row>
     <row r="5">
@@ -2732,13 +2732,13 @@
         <v>43355</v>
       </c>
       <c r="C5" t="n">
-        <v>-8.764960811715929e-06</v>
+        <v>-1.21162281181069e-05</v>
       </c>
       <c r="D5" t="n">
         <v>-1.32e-09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45693.42243967592</v>
+        <v>45699.42953510417</v>
       </c>
     </row>
     <row r="6">
@@ -2749,13 +2749,13 @@
         <v>44163.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-7.079476700873556e-06</v>
+        <v>-1.015125986149797e-05</v>
       </c>
       <c r="D6" t="n">
         <v>-1.32e-09</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45693.42243967592</v>
+        <v>45699.42953510417</v>
       </c>
     </row>
   </sheetData>
@@ -2807,13 +2807,13 @@
         <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.208654861614519e-05</v>
+        <v>-1.451039239217842e-05</v>
       </c>
       <c r="D2" t="n">
         <v>-4.76e-10</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45693.42263416667</v>
+        <v>45699.42976238426</v>
       </c>
     </row>
     <row r="3">
@@ -2824,13 +2824,13 @@
         <v>41794</v>
       </c>
       <c r="C3" t="n">
-        <v>-8.797444772336551e-06</v>
+        <v>-1.084106635606613e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-4.76e-10</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45693.42263416667</v>
+        <v>45699.42976238426</v>
       </c>
     </row>
     <row r="4">
@@ -2841,13 +2841,13 @@
         <v>42795</v>
       </c>
       <c r="C4" t="n">
-        <v>-9.273920772336551e-06</v>
+        <v>-1.131754235606613e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-4.76e-10</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45693.42263444445</v>
+        <v>45699.4297631713</v>
       </c>
     </row>
     <row r="5">
@@ -2858,13 +2858,13 @@
         <v>44079.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-8.864256280629331e-06</v>
+        <v>-1.072990306400241e-05</v>
       </c>
       <c r="D5" t="n">
         <v>-4.76e-10</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45693.42263416667</v>
+        <v>45699.42976238426</v>
       </c>
     </row>
     <row r="6">
@@ -2875,13 +2875,13 @@
         <v>44975.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-8.26026077587623e-06</v>
+        <v>-1.051201808636742e-05</v>
       </c>
       <c r="D6" t="n">
         <v>-4.76e-10</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45693.42263416667</v>
+        <v>45699.42976238426</v>
       </c>
     </row>
   </sheetData>
@@ -2933,13 +2933,13 @@
         <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.568106527749864e-05</v>
+        <v>-1.517831388139519e-05</v>
       </c>
       <c r="D2" t="n">
         <v>-8.12e-10</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45693.42288696759</v>
+        <v>45699.43000055556</v>
       </c>
     </row>
     <row r="3">
@@ -2950,13 +2950,13 @@
         <v>42301.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.671352327749864e-05</v>
+        <v>-1.621077188139519e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-8.12e-10</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45693.42288716435</v>
+        <v>45699.43000067129</v>
       </c>
     </row>
     <row r="4">
@@ -2967,13 +2967,13 @@
         <v>43386.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.759454327749864e-05</v>
+        <v>-1.709179188139519e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-8.12e-10</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45693.42288716435</v>
+        <v>45699.43000067129</v>
       </c>
     </row>
     <row r="5">
@@ -2984,13 +2984,13 @@
         <v>43750.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.576013026415463e-05</v>
+        <v>-1.518043171774478e-05</v>
       </c>
       <c r="D5" t="n">
         <v>-8.12e-10</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45693.42288696759</v>
+        <v>45699.43000055556</v>
       </c>
     </row>
     <row r="6">
@@ -3001,13 +3001,13 @@
         <v>44954.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-8.82435553633218e-06</v>
+        <v>-8.302379699520973e-06</v>
       </c>
       <c r="D6" t="n">
         <v>-8.12e-10</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45693.42288696759</v>
+        <v>45699.43000055556</v>
       </c>
     </row>
   </sheetData>
@@ -3059,13 +3059,13 @@
         <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.736512120756952e-05</v>
+        <v>-1.759504368615993e-05</v>
       </c>
       <c r="D2" t="n">
         <v>-1.5e-09</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45693.42318304398</v>
+        <v>45699.43024622685</v>
       </c>
     </row>
     <row r="3">
@@ -3076,13 +3076,13 @@
         <v>42249</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.919362120756952e-05</v>
+        <v>-1.942354368615993e-05</v>
       </c>
       <c r="D3" t="n">
         <v>-1.5e-09</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45693.42318326389</v>
+        <v>45699.43024650463</v>
       </c>
     </row>
     <row r="4">
@@ -3093,13 +3093,13 @@
         <v>43040</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.93459375261922e-05</v>
+        <v>-1.973271155775566e-05</v>
       </c>
       <c r="D4" t="n">
         <v>-1.5e-09</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45693.42318304398</v>
+        <v>45699.43024622685</v>
       </c>
     </row>
     <row r="5">
@@ -3110,13 +3110,13 @@
         <v>44499.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.004433763426037e-05</v>
+        <v>-2.042309272475929e-05</v>
       </c>
       <c r="D5" t="n">
         <v>-1.5e-09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45693.42318304398</v>
+        <v>45699.43024622685</v>
       </c>
     </row>
     <row r="6">
@@ -3127,13 +3127,13 @@
         <v>45178.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.106283763426037e-05</v>
+        <v>-2.144159272475929e-05</v>
       </c>
       <c r="D6" t="n">
         <v>-1.5e-09</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45693.42318326389</v>
+        <v>45699.43024650463</v>
       </c>
     </row>
   </sheetData>
@@ -3185,13 +3185,13 @@
         <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-9.589542806634301e-06</v>
+        <v>-7.435582698831268e-06</v>
       </c>
       <c r="D2" t="n">
         <v>-4.7e-10</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45693.42329850695</v>
+        <v>45699.43037119213</v>
       </c>
     </row>
     <row r="3">
@@ -3202,13 +3202,13 @@
         <v>44237</v>
       </c>
       <c r="C3" t="n">
-        <v>-9.617430830151785e-06</v>
+        <v>-7.2120271633091e-06</v>
       </c>
       <c r="D3" t="n">
         <v>-4.7e-10</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45693.42329850695</v>
+        <v>45699.43037119213</v>
       </c>
     </row>
     <row r="4">
@@ -3219,13 +3219,13 @@
         <v>45203</v>
       </c>
       <c r="C4" t="n">
-        <v>-9.812269772089445e-06</v>
+        <v>-7.502093079143848e-06</v>
       </c>
       <c r="D4" t="n">
         <v>-4.7e-10</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45693.42329850695</v>
+        <v>45699.43037119213</v>
       </c>
     </row>
   </sheetData>
@@ -3277,13 +3277,13 @@
         <v>41030</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.290816691273146e-05</v>
+        <v>-9.14605725073916e-06</v>
       </c>
       <c r="D2" t="n">
         <v>-7.7e-10</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>45693.42352934027</v>
+        <v>45699.43061270833</v>
       </c>
     </row>
     <row r="3">
@@ -3294,13 +3294,13 @@
         <v>41367</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.251746553466974e-05</v>
+        <v>-9.405547250739161e-06</v>
       </c>
       <c r="D3" t="n">
         <v>-7.7e-10</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>45693.42352934027</v>
+        <v>45699.43061288194</v>
       </c>
     </row>
     <row r="4">
@@ -3311,13 +3311,13 @@
         <v>42655</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.189272787390153e-05</v>
+        <v>-8.683072879613658e-06</v>
       </c>
       <c r="D4" t="n">
         <v>-7.7e-10</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45693.42352934027</v>
+        <v>45699.43061270833</v>
       </c>
     </row>
     <row r="5">
@@ -3328,13 +3328,13 @@
         <v>43407.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.247215287390153e-05</v>
+        <v>-9.262497879613658e-06</v>
       </c>
       <c r="D5" t="n">
         <v>-7.7e-10</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45693.42352965278</v>
+        <v>45699.43061288194</v>
       </c>
     </row>
     <row r="6">
@@ -3345,13 +3345,13 @@
         <v>43771.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.180429018083143e-05</v>
+        <v>-8.270735287072315e-06</v>
       </c>
       <c r="D6" t="n">
         <v>-7.7e-10</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45693.42352934027</v>
+        <v>45699.43061270833</v>
       </c>
     </row>
     <row r="7">
@@ -3362,13 +3362,13 @@
         <v>44541.5</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.098499137406224e-05</v>
+        <v>-7.903876011465148e-06</v>
       </c>
       <c r="D7" t="n">
         <v>-7.7e-10</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45693.42352934027</v>
+        <v>45699.43061270833</v>
       </c>
     </row>
   </sheetData>
